--- a/data/volley_stats.xlsx
+++ b/data/volley_stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="27">
   <si>
     <t>Serve Error</t>
   </si>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:N142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,6 +1448,4407 @@
         <v>0.67</v>
       </c>
       <c r="N25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>9</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H30" s="2">
+        <v>7</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="K30" s="2">
+        <v>4</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
+      <c r="I31" s="2">
+        <v>5</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2</v>
+      </c>
+      <c r="L31" s="2">
+        <v>3</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>7</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>7</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2">
+        <v>9</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="K34" s="2">
+        <v>2</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="2">
+        <v>9</v>
+      </c>
+      <c r="I35" s="2">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K35" s="2">
+        <v>3</v>
+      </c>
+      <c r="L35" s="2">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4</v>
+      </c>
+      <c r="I36" s="2">
+        <v>4</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="2">
+        <v>3</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>7</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>7</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>4</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="2">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="2">
+        <v>2</v>
+      </c>
+      <c r="L38" s="2">
+        <v>4</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N38" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H42" s="2">
+        <v>3</v>
+      </c>
+      <c r="I42" s="2">
+        <v>9</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H43" s="2">
+        <v>7</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="K43" s="2">
+        <v>4</v>
+      </c>
+      <c r="L43" s="2">
+        <v>2</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H44" s="2">
+        <v>5</v>
+      </c>
+      <c r="I44" s="2">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2</v>
+      </c>
+      <c r="L44" s="2">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H45" s="2">
+        <v>4</v>
+      </c>
+      <c r="I45" s="2">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="2">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2">
+        <v>7</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>7</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2</v>
+      </c>
+      <c r="I47" s="2">
+        <v>9</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="K47" s="2">
+        <v>2</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N47" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H48" s="2">
+        <v>9</v>
+      </c>
+      <c r="I48" s="2">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K48" s="2">
+        <v>3</v>
+      </c>
+      <c r="L48" s="2">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>6</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H49" s="2">
+        <v>4</v>
+      </c>
+      <c r="I49" s="2">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K49" s="2">
+        <v>3</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>7</v>
+      </c>
+      <c r="F50" s="2">
+        <v>4</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>7</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>4</v>
+      </c>
+      <c r="L50" s="2">
+        <v>2</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="2">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H51" s="2">
+        <v>2</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="2">
+        <v>2</v>
+      </c>
+      <c r="L51" s="2">
+        <v>4</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N51" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H55" s="2">
+        <v>3</v>
+      </c>
+      <c r="I55" s="2">
+        <v>9</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N55" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2</v>
+      </c>
+      <c r="F56" s="2">
+        <v>3</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H56" s="2">
+        <v>7</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="K56" s="2">
+        <v>4</v>
+      </c>
+      <c r="L56" s="2">
+        <v>2</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H57" s="2">
+        <v>5</v>
+      </c>
+      <c r="I57" s="2">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K57" s="2">
+        <v>2</v>
+      </c>
+      <c r="L57" s="2">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H58" s="2">
+        <v>4</v>
+      </c>
+      <c r="I58" s="2">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N58" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="2">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E59" s="2">
+        <v>5</v>
+      </c>
+      <c r="F59" s="2">
+        <v>7</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>7</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2</v>
+      </c>
+      <c r="I60" s="2">
+        <v>9</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="K60" s="2">
+        <v>2</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N60" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>3</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H61" s="2">
+        <v>9</v>
+      </c>
+      <c r="I61" s="2">
+        <v>4</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K61" s="2">
+        <v>3</v>
+      </c>
+      <c r="L61" s="2">
+        <v>4</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N61" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2">
+        <v>6</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H62" s="2">
+        <v>4</v>
+      </c>
+      <c r="I62" s="2">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K62" s="2">
+        <v>3</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="2">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E63" s="2">
+        <v>7</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>7</v>
+      </c>
+      <c r="J63" s="3">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>4</v>
+      </c>
+      <c r="L63" s="2">
+        <v>2</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="2">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E64" s="2">
+        <v>5</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H64" s="2">
+        <v>2</v>
+      </c>
+      <c r="I64" s="2">
+        <v>2</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K64" s="2">
+        <v>2</v>
+      </c>
+      <c r="L64" s="2">
+        <v>4</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N64" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="2">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H68" s="2">
+        <v>3</v>
+      </c>
+      <c r="I68" s="2">
+        <v>9</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2</v>
+      </c>
+      <c r="F69" s="2">
+        <v>3</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H69" s="2">
+        <v>7</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="K69" s="2">
+        <v>4</v>
+      </c>
+      <c r="L69" s="2">
+        <v>2</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N69" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="2">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="E70" s="2">
+        <v>5</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H70" s="2">
+        <v>5</v>
+      </c>
+      <c r="I70" s="2">
+        <v>5</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K70" s="2">
+        <v>2</v>
+      </c>
+      <c r="L70" s="2">
+        <v>3</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N70" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H71" s="2">
+        <v>4</v>
+      </c>
+      <c r="I71" s="2">
+        <v>3</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="L71" s="2">
+        <v>3</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N71" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="2">
+        <v>7</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E72" s="2">
+        <v>5</v>
+      </c>
+      <c r="F72" s="2">
+        <v>7</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2">
+        <v>7</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+      <c r="L72" s="2">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="2">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H73" s="2">
+        <v>2</v>
+      </c>
+      <c r="I73" s="2">
+        <v>9</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="K73" s="2">
+        <v>2</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N73" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="2">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>3</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H74" s="2">
+        <v>9</v>
+      </c>
+      <c r="I74" s="2">
+        <v>4</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K74" s="2">
+        <v>3</v>
+      </c>
+      <c r="L74" s="2">
+        <v>4</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N74" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2</v>
+      </c>
+      <c r="F75" s="2">
+        <v>6</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H75" s="2">
+        <v>4</v>
+      </c>
+      <c r="I75" s="2">
+        <v>4</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K75" s="2">
+        <v>3</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N75" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="2">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2">
+        <v>3</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E76" s="2">
+        <v>7</v>
+      </c>
+      <c r="F76" s="2">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>7</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2">
+        <v>4</v>
+      </c>
+      <c r="L76" s="2">
+        <v>2</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="2">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E77" s="2">
+        <v>5</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H77" s="2">
+        <v>2</v>
+      </c>
+      <c r="I77" s="2">
+        <v>2</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K77" s="2">
+        <v>2</v>
+      </c>
+      <c r="L77" s="2">
+        <v>4</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N77" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="2">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H81" s="2">
+        <v>3</v>
+      </c>
+      <c r="I81" s="2">
+        <v>9</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N81" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="2">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2</v>
+      </c>
+      <c r="F82" s="2">
+        <v>3</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H82" s="2">
+        <v>7</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="K82" s="2">
+        <v>4</v>
+      </c>
+      <c r="L82" s="2">
+        <v>2</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N82" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="2">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="E83" s="2">
+        <v>5</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H83" s="2">
+        <v>5</v>
+      </c>
+      <c r="I83" s="2">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K83" s="2">
+        <v>2</v>
+      </c>
+      <c r="L83" s="2">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N83" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="2">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H84" s="2">
+        <v>4</v>
+      </c>
+      <c r="I84" s="2">
+        <v>3</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1</v>
+      </c>
+      <c r="L84" s="2">
+        <v>3</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N84" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="2">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E85" s="2">
+        <v>5</v>
+      </c>
+      <c r="F85" s="2">
+        <v>7</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H85" s="2">
+        <v>1</v>
+      </c>
+      <c r="I85" s="2">
+        <v>7</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1</v>
+      </c>
+      <c r="L85" s="2">
+        <v>3</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="2">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H86" s="2">
+        <v>2</v>
+      </c>
+      <c r="I86" s="2">
+        <v>9</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="K86" s="2">
+        <v>2</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N86" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="2">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2">
+        <v>3</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>3</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H87" s="2">
+        <v>9</v>
+      </c>
+      <c r="I87" s="2">
+        <v>4</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K87" s="2">
+        <v>3</v>
+      </c>
+      <c r="L87" s="2">
+        <v>4</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N87" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2</v>
+      </c>
+      <c r="F88" s="2">
+        <v>6</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H88" s="2">
+        <v>4</v>
+      </c>
+      <c r="I88" s="2">
+        <v>4</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K88" s="2">
+        <v>3</v>
+      </c>
+      <c r="L88" s="2">
+        <v>1</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N88" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="2">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2">
+        <v>3</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E89" s="2">
+        <v>7</v>
+      </c>
+      <c r="F89" s="2">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <v>7</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1</v>
+      </c>
+      <c r="K89" s="2">
+        <v>4</v>
+      </c>
+      <c r="L89" s="2">
+        <v>2</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="2">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E90" s="2">
+        <v>5</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H90" s="2">
+        <v>2</v>
+      </c>
+      <c r="I90" s="2">
+        <v>2</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K90" s="2">
+        <v>2</v>
+      </c>
+      <c r="L90" s="2">
+        <v>4</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N90" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E94" s="2">
+        <v>3</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H94" s="2">
+        <v>3</v>
+      </c>
+      <c r="I94" s="2">
+        <v>9</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1</v>
+      </c>
+      <c r="L94" s="2">
+        <v>1</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N94" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2</v>
+      </c>
+      <c r="F95" s="2">
+        <v>3</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H95" s="2">
+        <v>7</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="K95" s="2">
+        <v>4</v>
+      </c>
+      <c r="L95" s="2">
+        <v>2</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N95" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="2">
+        <v>4</v>
+      </c>
+      <c r="C96" s="2">
+        <v>3</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="E96" s="2">
+        <v>5</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H96" s="2">
+        <v>5</v>
+      </c>
+      <c r="I96" s="2">
+        <v>5</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K96" s="2">
+        <v>2</v>
+      </c>
+      <c r="L96" s="2">
+        <v>3</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N96" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="2">
+        <v>3</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E97" s="2">
+        <v>3</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H97" s="2">
+        <v>4</v>
+      </c>
+      <c r="I97" s="2">
+        <v>3</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1</v>
+      </c>
+      <c r="L97" s="2">
+        <v>3</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N97" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="2">
+        <v>7</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E98" s="2">
+        <v>5</v>
+      </c>
+      <c r="F98" s="2">
+        <v>7</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H98" s="2">
+        <v>1</v>
+      </c>
+      <c r="I98" s="2">
+        <v>7</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="K98" s="2">
+        <v>1</v>
+      </c>
+      <c r="L98" s="2">
+        <v>3</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="2">
+        <v>3</v>
+      </c>
+      <c r="C99" s="2">
+        <v>5</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="E99" s="2">
+        <v>3</v>
+      </c>
+      <c r="F99" s="2">
+        <v>2</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H99" s="2">
+        <v>2</v>
+      </c>
+      <c r="I99" s="2">
+        <v>9</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="K99" s="2">
+        <v>2</v>
+      </c>
+      <c r="L99" s="2">
+        <v>1</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N99" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="2">
+        <v>5</v>
+      </c>
+      <c r="C100" s="2">
+        <v>3</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H100" s="2">
+        <v>9</v>
+      </c>
+      <c r="I100" s="2">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K100" s="2">
+        <v>3</v>
+      </c>
+      <c r="L100" s="2">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N100" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2">
+        <v>4</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E101" s="2">
+        <v>2</v>
+      </c>
+      <c r="F101" s="2">
+        <v>6</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H101" s="2">
+        <v>4</v>
+      </c>
+      <c r="I101" s="2">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K101" s="2">
+        <v>3</v>
+      </c>
+      <c r="L101" s="2">
+        <v>1</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N101" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="2">
+        <v>7</v>
+      </c>
+      <c r="C102" s="2">
+        <v>3</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E102" s="2">
+        <v>7</v>
+      </c>
+      <c r="F102" s="2">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>7</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1</v>
+      </c>
+      <c r="K102" s="2">
+        <v>4</v>
+      </c>
+      <c r="L102" s="2">
+        <v>2</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="2">
+        <v>9</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E103" s="2">
+        <v>5</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H103" s="2">
+        <v>2</v>
+      </c>
+      <c r="I103" s="2">
+        <v>2</v>
+      </c>
+      <c r="J103" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K103" s="2">
+        <v>2</v>
+      </c>
+      <c r="L103" s="2">
+        <v>4</v>
+      </c>
+      <c r="M103" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N103" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="2">
+        <v>3</v>
+      </c>
+      <c r="C107" s="2">
+        <v>2</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E107" s="2">
+        <v>3</v>
+      </c>
+      <c r="F107" s="2">
+        <v>2</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H107" s="2">
+        <v>3</v>
+      </c>
+      <c r="I107" s="2">
+        <v>9</v>
+      </c>
+      <c r="J107" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K107" s="2">
+        <v>1</v>
+      </c>
+      <c r="L107" s="2">
+        <v>1</v>
+      </c>
+      <c r="M107" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N107" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="2">
+        <v>3</v>
+      </c>
+      <c r="C108" s="2">
+        <v>2</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E108" s="2">
+        <v>2</v>
+      </c>
+      <c r="F108" s="2">
+        <v>3</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H108" s="2">
+        <v>7</v>
+      </c>
+      <c r="I108" s="2">
+        <v>1</v>
+      </c>
+      <c r="J108" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="K108" s="2">
+        <v>4</v>
+      </c>
+      <c r="L108" s="2">
+        <v>2</v>
+      </c>
+      <c r="M108" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N108" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="2">
+        <v>4</v>
+      </c>
+      <c r="C109" s="2">
+        <v>3</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="E109" s="2">
+        <v>5</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H109" s="2">
+        <v>5</v>
+      </c>
+      <c r="I109" s="2">
+        <v>5</v>
+      </c>
+      <c r="J109" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K109" s="2">
+        <v>2</v>
+      </c>
+      <c r="L109" s="2">
+        <v>3</v>
+      </c>
+      <c r="M109" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N109" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="2">
+        <v>3</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E110" s="2">
+        <v>3</v>
+      </c>
+      <c r="F110" s="2">
+        <v>2</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H110" s="2">
+        <v>4</v>
+      </c>
+      <c r="I110" s="2">
+        <v>3</v>
+      </c>
+      <c r="J110" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K110" s="2">
+        <v>1</v>
+      </c>
+      <c r="L110" s="2">
+        <v>3</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N110" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="2">
+        <v>7</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E111" s="2">
+        <v>5</v>
+      </c>
+      <c r="F111" s="2">
+        <v>7</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="2">
+        <v>7</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="K111" s="2">
+        <v>1</v>
+      </c>
+      <c r="L111" s="2">
+        <v>3</v>
+      </c>
+      <c r="M111" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="2">
+        <v>3</v>
+      </c>
+      <c r="C112" s="2">
+        <v>5</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="E112" s="2">
+        <v>3</v>
+      </c>
+      <c r="F112" s="2">
+        <v>2</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H112" s="2">
+        <v>2</v>
+      </c>
+      <c r="I112" s="2">
+        <v>9</v>
+      </c>
+      <c r="J112" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="K112" s="2">
+        <v>2</v>
+      </c>
+      <c r="L112" s="2">
+        <v>1</v>
+      </c>
+      <c r="M112" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N112" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="2">
+        <v>5</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2">
+        <v>3</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H113" s="2">
+        <v>9</v>
+      </c>
+      <c r="I113" s="2">
+        <v>4</v>
+      </c>
+      <c r="J113" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K113" s="2">
+        <v>3</v>
+      </c>
+      <c r="L113" s="2">
+        <v>4</v>
+      </c>
+      <c r="M113" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N113" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2">
+        <v>4</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E114" s="2">
+        <v>2</v>
+      </c>
+      <c r="F114" s="2">
+        <v>6</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H114" s="2">
+        <v>4</v>
+      </c>
+      <c r="I114" s="2">
+        <v>4</v>
+      </c>
+      <c r="J114" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K114" s="2">
+        <v>3</v>
+      </c>
+      <c r="L114" s="2">
+        <v>1</v>
+      </c>
+      <c r="M114" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N114" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="2">
+        <v>7</v>
+      </c>
+      <c r="C115" s="2">
+        <v>3</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E115" s="2">
+        <v>7</v>
+      </c>
+      <c r="F115" s="2">
+        <v>4</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2">
+        <v>7</v>
+      </c>
+      <c r="J115" s="3">
+        <v>1</v>
+      </c>
+      <c r="K115" s="2">
+        <v>4</v>
+      </c>
+      <c r="L115" s="2">
+        <v>2</v>
+      </c>
+      <c r="M115" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="2">
+        <v>9</v>
+      </c>
+      <c r="C116" s="2">
+        <v>2</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E116" s="2">
+        <v>5</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H116" s="2">
+        <v>2</v>
+      </c>
+      <c r="I116" s="2">
+        <v>2</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K116" s="2">
+        <v>2</v>
+      </c>
+      <c r="L116" s="2">
+        <v>4</v>
+      </c>
+      <c r="M116" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N116" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="2">
+        <v>3</v>
+      </c>
+      <c r="C120" s="2">
+        <v>2</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E120" s="2">
+        <v>3</v>
+      </c>
+      <c r="F120" s="2">
+        <v>2</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H120" s="2">
+        <v>3</v>
+      </c>
+      <c r="I120" s="2">
+        <v>9</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K120" s="2">
+        <v>1</v>
+      </c>
+      <c r="L120" s="2">
+        <v>1</v>
+      </c>
+      <c r="M120" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N120" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" s="2">
+        <v>3</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E121" s="2">
+        <v>2</v>
+      </c>
+      <c r="F121" s="2">
+        <v>3</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H121" s="2">
+        <v>7</v>
+      </c>
+      <c r="I121" s="2">
+        <v>1</v>
+      </c>
+      <c r="J121" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="K121" s="2">
+        <v>4</v>
+      </c>
+      <c r="L121" s="2">
+        <v>2</v>
+      </c>
+      <c r="M121" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N121" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="2">
+        <v>4</v>
+      </c>
+      <c r="C122" s="2">
+        <v>3</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="E122" s="2">
+        <v>5</v>
+      </c>
+      <c r="F122" s="2">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H122" s="2">
+        <v>5</v>
+      </c>
+      <c r="I122" s="2">
+        <v>5</v>
+      </c>
+      <c r="J122" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K122" s="2">
+        <v>2</v>
+      </c>
+      <c r="L122" s="2">
+        <v>3</v>
+      </c>
+      <c r="M122" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N122" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" s="2">
+        <v>3</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E123" s="2">
+        <v>3</v>
+      </c>
+      <c r="F123" s="2">
+        <v>2</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H123" s="2">
+        <v>4</v>
+      </c>
+      <c r="I123" s="2">
+        <v>3</v>
+      </c>
+      <c r="J123" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K123" s="2">
+        <v>1</v>
+      </c>
+      <c r="L123" s="2">
+        <v>3</v>
+      </c>
+      <c r="M123" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N123" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="2">
+        <v>7</v>
+      </c>
+      <c r="C124" s="2">
+        <v>1</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E124" s="2">
+        <v>5</v>
+      </c>
+      <c r="F124" s="2">
+        <v>7</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H124" s="2">
+        <v>1</v>
+      </c>
+      <c r="I124" s="2">
+        <v>7</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="K124" s="2">
+        <v>1</v>
+      </c>
+      <c r="L124" s="2">
+        <v>3</v>
+      </c>
+      <c r="M124" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="2">
+        <v>3</v>
+      </c>
+      <c r="C125" s="2">
+        <v>5</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="E125" s="2">
+        <v>3</v>
+      </c>
+      <c r="F125" s="2">
+        <v>2</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H125" s="2">
+        <v>2</v>
+      </c>
+      <c r="I125" s="2">
+        <v>9</v>
+      </c>
+      <c r="J125" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="K125" s="2">
+        <v>2</v>
+      </c>
+      <c r="L125" s="2">
+        <v>1</v>
+      </c>
+      <c r="M125" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N125" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="2">
+        <v>5</v>
+      </c>
+      <c r="C126" s="2">
+        <v>3</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="2">
+        <v>3</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H126" s="2">
+        <v>9</v>
+      </c>
+      <c r="I126" s="2">
+        <v>4</v>
+      </c>
+      <c r="J126" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K126" s="2">
+        <v>3</v>
+      </c>
+      <c r="L126" s="2">
+        <v>4</v>
+      </c>
+      <c r="M126" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N126" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2">
+        <v>4</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E127" s="2">
+        <v>2</v>
+      </c>
+      <c r="F127" s="2">
+        <v>6</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H127" s="2">
+        <v>4</v>
+      </c>
+      <c r="I127" s="2">
+        <v>4</v>
+      </c>
+      <c r="J127" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K127" s="2">
+        <v>3</v>
+      </c>
+      <c r="L127" s="2">
+        <v>1</v>
+      </c>
+      <c r="M127" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N127" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" s="2">
+        <v>7</v>
+      </c>
+      <c r="C128" s="2">
+        <v>3</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E128" s="2">
+        <v>7</v>
+      </c>
+      <c r="F128" s="2">
+        <v>4</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0</v>
+      </c>
+      <c r="I128" s="2">
+        <v>7</v>
+      </c>
+      <c r="J128" s="3">
+        <v>1</v>
+      </c>
+      <c r="K128" s="2">
+        <v>4</v>
+      </c>
+      <c r="L128" s="2">
+        <v>2</v>
+      </c>
+      <c r="M128" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B129" s="2">
+        <v>9</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E129" s="2">
+        <v>5</v>
+      </c>
+      <c r="F129" s="2">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H129" s="2">
+        <v>2</v>
+      </c>
+      <c r="I129" s="2">
+        <v>2</v>
+      </c>
+      <c r="J129" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K129" s="2">
+        <v>2</v>
+      </c>
+      <c r="L129" s="2">
+        <v>4</v>
+      </c>
+      <c r="M129" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N129" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="2">
+        <v>3</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E133" s="2">
+        <v>3</v>
+      </c>
+      <c r="F133" s="2">
+        <v>2</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H133" s="2">
+        <v>3</v>
+      </c>
+      <c r="I133" s="2">
+        <v>9</v>
+      </c>
+      <c r="J133" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1</v>
+      </c>
+      <c r="L133" s="2">
+        <v>1</v>
+      </c>
+      <c r="M133" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N133" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" s="2">
+        <v>3</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E134" s="2">
+        <v>2</v>
+      </c>
+      <c r="F134" s="2">
+        <v>3</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H134" s="2">
+        <v>7</v>
+      </c>
+      <c r="I134" s="2">
+        <v>1</v>
+      </c>
+      <c r="J134" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="K134" s="2">
+        <v>4</v>
+      </c>
+      <c r="L134" s="2">
+        <v>2</v>
+      </c>
+      <c r="M134" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N134" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="2">
+        <v>4</v>
+      </c>
+      <c r="C135" s="2">
+        <v>3</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="E135" s="2">
+        <v>5</v>
+      </c>
+      <c r="F135" s="2">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H135" s="2">
+        <v>5</v>
+      </c>
+      <c r="I135" s="2">
+        <v>5</v>
+      </c>
+      <c r="J135" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K135" s="2">
+        <v>2</v>
+      </c>
+      <c r="L135" s="2">
+        <v>3</v>
+      </c>
+      <c r="M135" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N135" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="2">
+        <v>3</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E136" s="2">
+        <v>3</v>
+      </c>
+      <c r="F136" s="2">
+        <v>2</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H136" s="2">
+        <v>4</v>
+      </c>
+      <c r="I136" s="2">
+        <v>3</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="K136" s="2">
+        <v>1</v>
+      </c>
+      <c r="L136" s="2">
+        <v>3</v>
+      </c>
+      <c r="M136" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N136" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="2">
+        <v>7</v>
+      </c>
+      <c r="C137" s="2">
+        <v>1</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E137" s="2">
+        <v>5</v>
+      </c>
+      <c r="F137" s="2">
+        <v>7</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H137" s="2">
+        <v>1</v>
+      </c>
+      <c r="I137" s="2">
+        <v>7</v>
+      </c>
+      <c r="J137" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1</v>
+      </c>
+      <c r="L137" s="2">
+        <v>3</v>
+      </c>
+      <c r="M137" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="N137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" s="2">
+        <v>3</v>
+      </c>
+      <c r="C138" s="2">
+        <v>5</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="E138" s="2">
+        <v>3</v>
+      </c>
+      <c r="F138" s="2">
+        <v>2</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H138" s="2">
+        <v>2</v>
+      </c>
+      <c r="I138" s="2">
+        <v>9</v>
+      </c>
+      <c r="J138" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="K138" s="2">
+        <v>2</v>
+      </c>
+      <c r="L138" s="2">
+        <v>1</v>
+      </c>
+      <c r="M138" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N138" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="2">
+        <v>5</v>
+      </c>
+      <c r="C139" s="2">
+        <v>3</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+      <c r="F139" s="2">
+        <v>3</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H139" s="2">
+        <v>9</v>
+      </c>
+      <c r="I139" s="2">
+        <v>4</v>
+      </c>
+      <c r="J139" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K139" s="2">
+        <v>3</v>
+      </c>
+      <c r="L139" s="2">
+        <v>4</v>
+      </c>
+      <c r="M139" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N139" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" s="2">
+        <v>1</v>
+      </c>
+      <c r="C140" s="2">
+        <v>4</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E140" s="2">
+        <v>2</v>
+      </c>
+      <c r="F140" s="2">
+        <v>6</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H140" s="2">
+        <v>4</v>
+      </c>
+      <c r="I140" s="2">
+        <v>4</v>
+      </c>
+      <c r="J140" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K140" s="2">
+        <v>3</v>
+      </c>
+      <c r="L140" s="2">
+        <v>1</v>
+      </c>
+      <c r="M140" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N140" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" s="2">
+        <v>7</v>
+      </c>
+      <c r="C141" s="2">
+        <v>3</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E141" s="2">
+        <v>7</v>
+      </c>
+      <c r="F141" s="2">
+        <v>4</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2">
+        <v>7</v>
+      </c>
+      <c r="J141" s="3">
+        <v>1</v>
+      </c>
+      <c r="K141" s="2">
+        <v>4</v>
+      </c>
+      <c r="L141" s="2">
+        <v>2</v>
+      </c>
+      <c r="M141" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="N141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B142" s="2">
+        <v>9</v>
+      </c>
+      <c r="C142" s="2">
+        <v>2</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E142" s="2">
+        <v>5</v>
+      </c>
+      <c r="F142" s="2">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H142" s="2">
+        <v>2</v>
+      </c>
+      <c r="I142" s="2">
+        <v>2</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K142" s="2">
+        <v>2</v>
+      </c>
+      <c r="L142" s="2">
+        <v>4</v>
+      </c>
+      <c r="M142" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N142" s="2">
         <v>6</v>
       </c>
     </row>

--- a/data/volley_stats.xlsx
+++ b/data/volley_stats.xlsx
@@ -446,10 +446,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H132" sqref="H132:J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -499,35 +499,50 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
           <t>Spike Errors</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>Spike Success</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>Block Successes</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -586,6 +601,17 @@
       <c r="N3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="27" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="inlineStr">
@@ -640,6 +666,17 @@
       <c r="N4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="27" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="inlineStr">
@@ -694,6 +731,17 @@
       <c r="N5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="27" customHeight="1" thickBot="1">
       <c r="A6" s="1" t="inlineStr">
@@ -748,6 +796,17 @@
       <c r="N6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="27" customHeight="1" thickBot="1">
       <c r="A7" s="1" t="inlineStr">
@@ -802,6 +861,17 @@
       <c r="N7" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="1" t="inlineStr">
@@ -856,6 +926,17 @@
       <c r="N8" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="27" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="inlineStr">
@@ -910,6 +991,17 @@
       <c r="N9" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="inlineStr">
@@ -964,6 +1056,17 @@
       <c r="N10" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="1" t="inlineStr">
@@ -1018,6 +1121,17 @@
       <c r="N11" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="inlineStr">
@@ -1072,6 +1186,17 @@
       <c r="N12" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" t="inlineStr">
@@ -1118,35 +1243,50 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
           <t>Hit Errors</t>
         </is>
       </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="L15" s="1" t="inlineStr">
         <is>
           <t>Hit Success</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="M15" s="1" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="N15" s="1" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="L15" s="1" t="inlineStr">
+      <c r="O15" s="1" t="inlineStr">
         <is>
           <t>Block Successes</t>
         </is>
       </c>
-      <c r="M15" s="1" t="inlineStr">
+      <c r="P15" s="1" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="N15" s="1" t="inlineStr">
+      <c r="Q15" s="1" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -1189,16 +1329,26 @@
         <v/>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M16" s="3">
         <f>L16/(K16+L16)</f>
         <v/>
       </c>
       <c r="N16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <f>O16/(N16+O16)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1239,16 +1389,26 @@
         <v/>
       </c>
       <c r="K17" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3">
         <f>L17/(K17+L17)</f>
         <v/>
       </c>
       <c r="N17" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" s="3">
+        <f>O17/(N17+O17)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1289,16 +1449,26 @@
         <v/>
       </c>
       <c r="K18" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M18" s="3">
         <f>L18/(K18+L18)</f>
         <v/>
       </c>
       <c r="N18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <f>O18/(N18+O18)</f>
+        <v/>
+      </c>
+      <c r="Q18" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1339,7 +1509,7 @@
         <v/>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19" s="2" t="n">
         <v>3</v>
@@ -1349,6 +1519,16 @@
         <v/>
       </c>
       <c r="N19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" s="3">
+        <f>O19/(N19+O19)</f>
+        <v/>
+      </c>
+      <c r="Q19" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1392,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M20" s="3">
         <f>L20/(K20+L20)</f>
@@ -1401,6 +1581,16 @@
       <c r="N20" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <f>O20/(N20+O20)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="1" t="inlineStr">
@@ -1442,13 +1632,23 @@
         <v>2</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M21" s="3">
         <f>L21/(K21+L21)</f>
         <v/>
       </c>
       <c r="N21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <f>O21/(N21+O21)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1489,7 +1689,7 @@
         <v/>
       </c>
       <c r="K22" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L22" s="2" t="n">
         <v>4</v>
@@ -1499,6 +1699,16 @@
         <v/>
       </c>
       <c r="N22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <f>O22/(N22+O22)</f>
+        <v/>
+      </c>
+      <c r="Q22" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1539,16 +1749,26 @@
         <v/>
       </c>
       <c r="K23" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M23" s="3">
         <f>L23/(K23+L23)</f>
         <v/>
       </c>
       <c r="N23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
+        <f>O23/(N23+O23)</f>
+        <v/>
+      </c>
+      <c r="Q23" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1589,16 +1809,26 @@
         <v/>
       </c>
       <c r="K24" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M24" s="3">
         <f>L24/(K24+L24)</f>
         <v/>
       </c>
       <c r="N24" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" s="3">
+        <f>O24/(N24+O24)</f>
+        <v/>
+      </c>
+      <c r="Q24" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1642,13 +1872,23 @@
         <v>2</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" s="3">
         <f>L25/(K25+L25)</f>
         <v/>
       </c>
       <c r="N25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P25" s="3">
+        <f>O25/(N25+O25)</f>
+        <v/>
+      </c>
+      <c r="Q25" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1697,35 +1937,50 @@
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J28" s="1" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K28" s="1" t="inlineStr">
+        <is>
           <t>Hit Errors</t>
         </is>
       </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="L28" s="1" t="inlineStr">
         <is>
           <t>Hit Success</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="M28" s="1" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="N28" s="1" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="L28" s="1" t="inlineStr">
+      <c r="O28" s="1" t="inlineStr">
         <is>
           <t>Block Successes</t>
         </is>
       </c>
-      <c r="M28" s="1" t="inlineStr">
+      <c r="P28" s="1" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="N28" s="1" t="inlineStr">
+      <c r="Q28" s="1" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -1768,16 +2023,26 @@
         <v/>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M29" s="3">
         <f>L29/(K29+L29)</f>
         <v/>
       </c>
       <c r="N29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <f>O29/(N29+O29)</f>
+        <v/>
+      </c>
+      <c r="Q29" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1818,16 +2083,26 @@
         <v/>
       </c>
       <c r="K30" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" s="3">
         <f>L30/(K30+L30)</f>
         <v/>
       </c>
       <c r="N30" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" s="3">
+        <f>O30/(N30+O30)</f>
+        <v/>
+      </c>
+      <c r="Q30" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1868,16 +2143,26 @@
         <v/>
       </c>
       <c r="K31" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31" s="3">
         <f>L31/(K31+L31)</f>
         <v/>
       </c>
       <c r="N31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" s="3">
+        <f>O31/(N31+O31)</f>
+        <v/>
+      </c>
+      <c r="Q31" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1918,7 +2203,7 @@
         <v/>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L32" s="2" t="n">
         <v>3</v>
@@ -1928,6 +2213,16 @@
         <v/>
       </c>
       <c r="N32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <f>O32/(N32+O32)</f>
+        <v/>
+      </c>
+      <c r="Q32" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1971,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M33" s="3">
         <f>L33/(K33+L33)</f>
@@ -1980,6 +2275,16 @@
       <c r="N33" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
+        <f>O33/(N33+O33)</f>
+        <v/>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="1" t="inlineStr">
@@ -2021,13 +2326,23 @@
         <v>2</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M34" s="3">
         <f>L34/(K34+L34)</f>
         <v/>
       </c>
       <c r="N34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3">
+        <f>O34/(N34+O34)</f>
+        <v/>
+      </c>
+      <c r="Q34" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2068,7 +2383,7 @@
         <v/>
       </c>
       <c r="K35" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L35" s="2" t="n">
         <v>4</v>
@@ -2078,6 +2393,16 @@
         <v/>
       </c>
       <c r="N35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
+        <f>O35/(N35+O35)</f>
+        <v/>
+      </c>
+      <c r="Q35" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2118,16 +2443,26 @@
         <v/>
       </c>
       <c r="K36" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M36" s="3">
         <f>L36/(K36+L36)</f>
         <v/>
       </c>
       <c r="N36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3">
+        <f>O36/(N36+O36)</f>
+        <v/>
+      </c>
+      <c r="Q36" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2168,16 +2503,26 @@
         <v/>
       </c>
       <c r="K37" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M37" s="3">
         <f>L37/(K37+L37)</f>
         <v/>
       </c>
       <c r="N37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" s="3">
+        <f>O37/(N37+O37)</f>
+        <v/>
+      </c>
+      <c r="Q37" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2221,13 +2566,23 @@
         <v>2</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38" s="3">
         <f>L38/(K38+L38)</f>
         <v/>
       </c>
       <c r="N38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P38" s="3">
+        <f>O38/(N38+O38)</f>
+        <v/>
+      </c>
+      <c r="Q38" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2276,35 +2631,50 @@
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I41" s="1" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
           <t>Hit Errors</t>
         </is>
       </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="L41" s="1" t="inlineStr">
         <is>
           <t>Hit Success</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="M41" s="1" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="N41" s="1" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="L41" s="1" t="inlineStr">
+      <c r="O41" s="1" t="inlineStr">
         <is>
           <t>Block Successes</t>
         </is>
       </c>
-      <c r="M41" s="1" t="inlineStr">
+      <c r="P41" s="1" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="N41" s="1" t="inlineStr">
+      <c r="Q41" s="1" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -2347,16 +2717,26 @@
         <v/>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M42" s="3">
         <f>L42/(K42+L42)</f>
         <v/>
       </c>
       <c r="N42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3">
+        <f>O42/(N42+O42)</f>
+        <v/>
+      </c>
+      <c r="Q42" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2397,16 +2777,26 @@
         <v/>
       </c>
       <c r="K43" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" s="3">
         <f>L43/(K43+L43)</f>
         <v/>
       </c>
       <c r="N43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" s="3">
+        <f>O43/(N43+O43)</f>
+        <v/>
+      </c>
+      <c r="Q43" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2447,16 +2837,26 @@
         <v/>
       </c>
       <c r="K44" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M44" s="3">
         <f>L44/(K44+L44)</f>
         <v/>
       </c>
       <c r="N44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3">
+        <f>O44/(N44+O44)</f>
+        <v/>
+      </c>
+      <c r="Q44" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2497,7 +2897,7 @@
         <v/>
       </c>
       <c r="K45" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L45" s="2" t="n">
         <v>3</v>
@@ -2507,6 +2907,16 @@
         <v/>
       </c>
       <c r="N45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3">
+        <f>O45/(N45+O45)</f>
+        <v/>
+      </c>
+      <c r="Q45" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2550,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M46" s="3">
         <f>L46/(K46+L46)</f>
@@ -2559,6 +2969,16 @@
       <c r="N46" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3">
+        <f>O46/(N46+O46)</f>
+        <v/>
+      </c>
+      <c r="Q46" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="1" t="inlineStr">
@@ -2600,13 +3020,23 @@
         <v>2</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M47" s="3">
         <f>L47/(K47+L47)</f>
         <v/>
       </c>
       <c r="N47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="3">
+        <f>O47/(N47+O47)</f>
+        <v/>
+      </c>
+      <c r="Q47" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2647,7 +3077,7 @@
         <v/>
       </c>
       <c r="K48" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L48" s="2" t="n">
         <v>4</v>
@@ -2657,6 +3087,16 @@
         <v/>
       </c>
       <c r="N48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
+        <f>O48/(N48+O48)</f>
+        <v/>
+      </c>
+      <c r="Q48" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2697,16 +3137,26 @@
         <v/>
       </c>
       <c r="K49" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <f>L49/(K49+L49)</f>
         <v/>
       </c>
       <c r="N49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="3">
+        <f>O49/(N49+O49)</f>
+        <v/>
+      </c>
+      <c r="Q49" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2747,16 +3197,26 @@
         <v/>
       </c>
       <c r="K50" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M50" s="3">
         <f>L50/(K50+L50)</f>
         <v/>
       </c>
       <c r="N50" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" s="3">
+        <f>O50/(N50+O50)</f>
+        <v/>
+      </c>
+      <c r="Q50" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2800,13 +3260,23 @@
         <v>2</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" s="3">
         <f>L51/(K51+L51)</f>
         <v/>
       </c>
       <c r="N51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P51" s="3">
+        <f>O51/(N51+O51)</f>
+        <v/>
+      </c>
+      <c r="Q51" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2855,35 +3325,50 @@
       </c>
       <c r="H54" s="1" t="inlineStr">
         <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I54" s="1" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J54" s="1" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K54" s="1" t="inlineStr">
+        <is>
           <t>Hit Errors</t>
         </is>
       </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="L54" s="1" t="inlineStr">
         <is>
           <t>Hit Success</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="M54" s="1" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="N54" s="1" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="L54" s="1" t="inlineStr">
+      <c r="O54" s="1" t="inlineStr">
         <is>
           <t>Block Successes</t>
         </is>
       </c>
-      <c r="M54" s="1" t="inlineStr">
+      <c r="P54" s="1" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="N54" s="1" t="inlineStr">
+      <c r="Q54" s="1" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -2926,16 +3411,26 @@
         <v/>
       </c>
       <c r="K55" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M55" s="3">
         <f>L55/(K55+L55)</f>
         <v/>
       </c>
       <c r="N55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="3">
+        <f>O55/(N55+O55)</f>
+        <v/>
+      </c>
+      <c r="Q55" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2976,16 +3471,26 @@
         <v/>
       </c>
       <c r="K56" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" s="3">
         <f>L56/(K56+L56)</f>
         <v/>
       </c>
       <c r="N56" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" s="3">
+        <f>O56/(N56+O56)</f>
+        <v/>
+      </c>
+      <c r="Q56" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3026,16 +3531,26 @@
         <v/>
       </c>
       <c r="K57" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M57" s="3">
         <f>L57/(K57+L57)</f>
         <v/>
       </c>
       <c r="N57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
+        <f>O57/(N57+O57)</f>
+        <v/>
+      </c>
+      <c r="Q57" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3076,7 +3591,7 @@
         <v/>
       </c>
       <c r="K58" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L58" s="2" t="n">
         <v>3</v>
@@ -3086,6 +3601,16 @@
         <v/>
       </c>
       <c r="N58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
+        <f>O58/(N58+O58)</f>
+        <v/>
+      </c>
+      <c r="Q58" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3129,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M59" s="3">
         <f>L59/(K59+L59)</f>
@@ -3138,6 +3663,16 @@
       <c r="N59" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O59" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
+        <f>O59/(N59+O59)</f>
+        <v/>
+      </c>
+      <c r="Q59" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1" thickBot="1">
       <c r="A60" s="1" t="inlineStr">
@@ -3179,13 +3714,23 @@
         <v>2</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M60" s="3">
         <f>L60/(K60+L60)</f>
         <v/>
       </c>
       <c r="N60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="3">
+        <f>O60/(N60+O60)</f>
+        <v/>
+      </c>
+      <c r="Q60" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3226,7 +3771,7 @@
         <v/>
       </c>
       <c r="K61" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L61" s="2" t="n">
         <v>4</v>
@@ -3236,6 +3781,16 @@
         <v/>
       </c>
       <c r="N61" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P61" s="3">
+        <f>O61/(N61+O61)</f>
+        <v/>
+      </c>
+      <c r="Q61" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3276,16 +3831,26 @@
         <v/>
       </c>
       <c r="K62" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <f>L62/(K62+L62)</f>
         <v/>
       </c>
       <c r="N62" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" s="3">
+        <f>O62/(N62+O62)</f>
+        <v/>
+      </c>
+      <c r="Q62" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3326,16 +3891,26 @@
         <v/>
       </c>
       <c r="K63" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M63" s="3">
         <f>L63/(K63+L63)</f>
         <v/>
       </c>
       <c r="N63" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P63" s="3">
+        <f>O63/(N63+O63)</f>
+        <v/>
+      </c>
+      <c r="Q63" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3379,13 +3954,23 @@
         <v>2</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M64" s="3">
         <f>L64/(K64+L64)</f>
         <v/>
       </c>
       <c r="N64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P64" s="3">
+        <f>O64/(N64+O64)</f>
+        <v/>
+      </c>
+      <c r="Q64" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3434,35 +4019,50 @@
       </c>
       <c r="H67" s="1" t="inlineStr">
         <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I67" s="1" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J67" s="1" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K67" s="1" t="inlineStr">
+        <is>
           <t>Hit Errors</t>
         </is>
       </c>
-      <c r="I67" s="1" t="inlineStr">
+      <c r="L67" s="1" t="inlineStr">
         <is>
           <t>Hit Success</t>
         </is>
       </c>
-      <c r="J67" s="1" t="inlineStr">
+      <c r="M67" s="1" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="K67" s="1" t="inlineStr">
+      <c r="N67" s="1" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="L67" s="1" t="inlineStr">
+      <c r="O67" s="1" t="inlineStr">
         <is>
           <t>Block Successes</t>
         </is>
       </c>
-      <c r="M67" s="1" t="inlineStr">
+      <c r="P67" s="1" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="N67" s="1" t="inlineStr">
+      <c r="Q67" s="1" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -3505,16 +4105,26 @@
         <v/>
       </c>
       <c r="K68" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M68" s="3">
         <f>L68/(K68+L68)</f>
         <v/>
       </c>
       <c r="N68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" s="3">
+        <f>O68/(N68+O68)</f>
+        <v/>
+      </c>
+      <c r="Q68" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3555,16 +4165,26 @@
         <v/>
       </c>
       <c r="K69" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M69" s="3">
         <f>L69/(K69+L69)</f>
         <v/>
       </c>
       <c r="N69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P69" s="3">
+        <f>O69/(N69+O69)</f>
+        <v/>
+      </c>
+      <c r="Q69" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3605,16 +4225,26 @@
         <v/>
       </c>
       <c r="K70" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M70" s="3">
         <f>L70/(K70+L70)</f>
         <v/>
       </c>
       <c r="N70" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P70" s="3">
+        <f>O70/(N70+O70)</f>
+        <v/>
+      </c>
+      <c r="Q70" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3655,7 +4285,7 @@
         <v/>
       </c>
       <c r="K71" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L71" s="2" t="n">
         <v>3</v>
@@ -3665,6 +4295,16 @@
         <v/>
       </c>
       <c r="N71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P71" s="3">
+        <f>O71/(N71+O71)</f>
+        <v/>
+      </c>
+      <c r="Q71" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3708,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M72" s="3">
         <f>L72/(K72+L72)</f>
@@ -3717,6 +4357,16 @@
       <c r="N72" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O72" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
+        <f>O72/(N72+O72)</f>
+        <v/>
+      </c>
+      <c r="Q72" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" thickBot="1">
       <c r="A73" s="1" t="inlineStr">
@@ -3758,13 +4408,23 @@
         <v>2</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M73" s="3">
         <f>L73/(K73+L73)</f>
         <v/>
       </c>
       <c r="N73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" s="3">
+        <f>O73/(N73+O73)</f>
+        <v/>
+      </c>
+      <c r="Q73" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3805,7 +4465,7 @@
         <v/>
       </c>
       <c r="K74" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L74" s="2" t="n">
         <v>4</v>
@@ -3815,6 +4475,16 @@
         <v/>
       </c>
       <c r="N74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P74" s="3">
+        <f>O74/(N74+O74)</f>
+        <v/>
+      </c>
+      <c r="Q74" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3855,16 +4525,26 @@
         <v/>
       </c>
       <c r="K75" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M75" s="3">
         <f>L75/(K75+L75)</f>
         <v/>
       </c>
       <c r="N75" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" s="3">
+        <f>O75/(N75+O75)</f>
+        <v/>
+      </c>
+      <c r="Q75" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3905,16 +4585,26 @@
         <v/>
       </c>
       <c r="K76" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M76" s="3">
         <f>L76/(K76+L76)</f>
         <v/>
       </c>
       <c r="N76" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O76" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P76" s="3">
+        <f>O76/(N76+O76)</f>
+        <v/>
+      </c>
+      <c r="Q76" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,13 +4648,23 @@
         <v>2</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M77" s="3">
         <f>L77/(K77+L77)</f>
         <v/>
       </c>
       <c r="N77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P77" s="3">
+        <f>O77/(N77+O77)</f>
+        <v/>
+      </c>
+      <c r="Q77" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4013,35 +4713,50 @@
       </c>
       <c r="H80" s="1" t="inlineStr">
         <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I80" s="1" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J80" s="1" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K80" s="1" t="inlineStr">
+        <is>
           <t>Hit Errors</t>
         </is>
       </c>
-      <c r="I80" s="1" t="inlineStr">
+      <c r="L80" s="1" t="inlineStr">
         <is>
           <t>Hit Success</t>
         </is>
       </c>
-      <c r="J80" s="1" t="inlineStr">
+      <c r="M80" s="1" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="K80" s="1" t="inlineStr">
+      <c r="N80" s="1" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="L80" s="1" t="inlineStr">
+      <c r="O80" s="1" t="inlineStr">
         <is>
           <t>Block Successes</t>
         </is>
       </c>
-      <c r="M80" s="1" t="inlineStr">
+      <c r="P80" s="1" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="N80" s="1" t="inlineStr">
+      <c r="Q80" s="1" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -4084,16 +4799,26 @@
         <v/>
       </c>
       <c r="K81" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M81" s="3">
         <f>L81/(K81+L81)</f>
         <v/>
       </c>
       <c r="N81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" s="3">
+        <f>O81/(N81+O81)</f>
+        <v/>
+      </c>
+      <c r="Q81" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4134,16 +4859,26 @@
         <v/>
       </c>
       <c r="K82" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L82" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M82" s="3">
         <f>L82/(K82+L82)</f>
         <v/>
       </c>
       <c r="N82" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P82" s="3">
+        <f>O82/(N82+O82)</f>
+        <v/>
+      </c>
+      <c r="Q82" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4184,16 +4919,26 @@
         <v/>
       </c>
       <c r="K83" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L83" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <f>L83/(K83+L83)</f>
         <v/>
       </c>
       <c r="N83" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
+        <f>O83/(N83+O83)</f>
+        <v/>
+      </c>
+      <c r="Q83" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4234,7 +4979,7 @@
         <v/>
       </c>
       <c r="K84" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L84" s="2" t="n">
         <v>3</v>
@@ -4244,6 +4989,16 @@
         <v/>
       </c>
       <c r="N84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P84" s="3">
+        <f>O84/(N84+O84)</f>
+        <v/>
+      </c>
+      <c r="Q84" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4287,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M85" s="3">
         <f>L85/(K85+L85)</f>
@@ -4296,6 +5051,16 @@
       <c r="N85" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O85" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P85" s="3">
+        <f>O85/(N85+O85)</f>
+        <v/>
+      </c>
+      <c r="Q85" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" ht="15.75" customHeight="1" thickBot="1">
       <c r="A86" s="1" t="inlineStr">
@@ -4337,13 +5102,23 @@
         <v>2</v>
       </c>
       <c r="L86" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M86" s="3">
         <f>L86/(K86+L86)</f>
         <v/>
       </c>
       <c r="N86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P86" s="3">
+        <f>O86/(N86+O86)</f>
+        <v/>
+      </c>
+      <c r="Q86" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4384,7 +5159,7 @@
         <v/>
       </c>
       <c r="K87" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L87" s="2" t="n">
         <v>4</v>
@@ -4394,6 +5169,16 @@
         <v/>
       </c>
       <c r="N87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P87" s="3">
+        <f>O87/(N87+O87)</f>
+        <v/>
+      </c>
+      <c r="Q87" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4434,16 +5219,26 @@
         <v/>
       </c>
       <c r="K88" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L88" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M88" s="3">
         <f>L88/(K88+L88)</f>
         <v/>
       </c>
       <c r="N88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" s="3">
+        <f>O88/(N88+O88)</f>
+        <v/>
+      </c>
+      <c r="Q88" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4484,16 +5279,26 @@
         <v/>
       </c>
       <c r="K89" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L89" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M89" s="3">
         <f>L89/(K89+L89)</f>
         <v/>
       </c>
       <c r="N89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P89" s="3">
+        <f>O89/(N89+O89)</f>
+        <v/>
+      </c>
+      <c r="Q89" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4537,13 +5342,23 @@
         <v>2</v>
       </c>
       <c r="L90" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M90" s="3">
         <f>L90/(K90+L90)</f>
         <v/>
       </c>
       <c r="N90" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P90" s="3">
+        <f>O90/(N90+O90)</f>
+        <v/>
+      </c>
+      <c r="Q90" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4592,35 +5407,50 @@
       </c>
       <c r="H93" s="1" t="inlineStr">
         <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I93" s="1" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J93" s="1" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K93" s="1" t="inlineStr">
+        <is>
           <t>Hit Errors</t>
         </is>
       </c>
-      <c r="I93" s="1" t="inlineStr">
+      <c r="L93" s="1" t="inlineStr">
         <is>
           <t>Hit Success</t>
         </is>
       </c>
-      <c r="J93" s="1" t="inlineStr">
+      <c r="M93" s="1" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="K93" s="1" t="inlineStr">
+      <c r="N93" s="1" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="L93" s="1" t="inlineStr">
+      <c r="O93" s="1" t="inlineStr">
         <is>
           <t>Block Successes</t>
         </is>
       </c>
-      <c r="M93" s="1" t="inlineStr">
+      <c r="P93" s="1" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="N93" s="1" t="inlineStr">
+      <c r="Q93" s="1" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -4663,16 +5493,26 @@
         <v/>
       </c>
       <c r="K94" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L94" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M94" s="3">
         <f>L94/(K94+L94)</f>
         <v/>
       </c>
       <c r="N94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" s="3">
+        <f>O94/(N94+O94)</f>
+        <v/>
+      </c>
+      <c r="Q94" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4713,16 +5553,26 @@
         <v/>
       </c>
       <c r="K95" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L95" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" s="3">
         <f>L95/(K95+L95)</f>
         <v/>
       </c>
       <c r="N95" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P95" s="3">
+        <f>O95/(N95+O95)</f>
+        <v/>
+      </c>
+      <c r="Q95" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4763,16 +5613,26 @@
         <v/>
       </c>
       <c r="K96" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L96" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M96" s="3">
         <f>L96/(K96+L96)</f>
         <v/>
       </c>
       <c r="N96" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P96" s="3">
+        <f>O96/(N96+O96)</f>
+        <v/>
+      </c>
+      <c r="Q96" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4813,7 +5673,7 @@
         <v/>
       </c>
       <c r="K97" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L97" s="2" t="n">
         <v>3</v>
@@ -4823,6 +5683,16 @@
         <v/>
       </c>
       <c r="N97" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P97" s="3">
+        <f>O97/(N97+O97)</f>
+        <v/>
+      </c>
+      <c r="Q97" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4866,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="L98" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M98" s="3">
         <f>L98/(K98+L98)</f>
@@ -4875,6 +5745,16 @@
       <c r="N98" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O98" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P98" s="3">
+        <f>O98/(N98+O98)</f>
+        <v/>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" ht="15.75" customHeight="1" thickBot="1">
       <c r="A99" s="1" t="inlineStr">
@@ -4916,13 +5796,23 @@
         <v>2</v>
       </c>
       <c r="L99" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M99" s="3">
         <f>L99/(K99+L99)</f>
         <v/>
       </c>
       <c r="N99" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" s="3">
+        <f>O99/(N99+O99)</f>
+        <v/>
+      </c>
+      <c r="Q99" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4963,7 +5853,7 @@
         <v/>
       </c>
       <c r="K100" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L100" s="2" t="n">
         <v>4</v>
@@ -4973,6 +5863,16 @@
         <v/>
       </c>
       <c r="N100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
+        <f>O100/(N100+O100)</f>
+        <v/>
+      </c>
+      <c r="Q100" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5013,16 +5913,26 @@
         <v/>
       </c>
       <c r="K101" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L101" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <f>L101/(K101+L101)</f>
         <v/>
       </c>
       <c r="N101" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" s="3">
+        <f>O101/(N101+O101)</f>
+        <v/>
+      </c>
+      <c r="Q101" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5063,16 +5973,26 @@
         <v/>
       </c>
       <c r="K102" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L102" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M102" s="3">
         <f>L102/(K102+L102)</f>
         <v/>
       </c>
       <c r="N102" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O102" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P102" s="3">
+        <f>O102/(N102+O102)</f>
+        <v/>
+      </c>
+      <c r="Q102" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5116,13 +6036,23 @@
         <v>2</v>
       </c>
       <c r="L103" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M103" s="3">
         <f>L103/(K103+L103)</f>
         <v/>
       </c>
       <c r="N103" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P103" s="3">
+        <f>O103/(N103+O103)</f>
+        <v/>
+      </c>
+      <c r="Q103" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5171,35 +6101,50 @@
       </c>
       <c r="H106" s="1" t="inlineStr">
         <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I106" s="1" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J106" s="1" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K106" s="1" t="inlineStr">
+        <is>
           <t>Hit Errors</t>
         </is>
       </c>
-      <c r="I106" s="1" t="inlineStr">
+      <c r="L106" s="1" t="inlineStr">
         <is>
           <t>Hit Success</t>
         </is>
       </c>
-      <c r="J106" s="1" t="inlineStr">
+      <c r="M106" s="1" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="K106" s="1" t="inlineStr">
+      <c r="N106" s="1" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="L106" s="1" t="inlineStr">
+      <c r="O106" s="1" t="inlineStr">
         <is>
           <t>Block Successes</t>
         </is>
       </c>
-      <c r="M106" s="1" t="inlineStr">
+      <c r="P106" s="1" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="N106" s="1" t="inlineStr">
+      <c r="Q106" s="1" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -5242,16 +6187,26 @@
         <v/>
       </c>
       <c r="K107" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L107" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M107" s="3">
         <f>L107/(K107+L107)</f>
         <v/>
       </c>
       <c r="N107" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" s="3">
+        <f>O107/(N107+O107)</f>
+        <v/>
+      </c>
+      <c r="Q107" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5292,16 +6247,26 @@
         <v/>
       </c>
       <c r="K108" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L108" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M108" s="3">
         <f>L108/(K108+L108)</f>
         <v/>
       </c>
       <c r="N108" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O108" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P108" s="3">
+        <f>O108/(N108+O108)</f>
+        <v/>
+      </c>
+      <c r="Q108" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5342,16 +6307,26 @@
         <v/>
       </c>
       <c r="K109" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L109" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M109" s="3">
         <f>L109/(K109+L109)</f>
         <v/>
       </c>
       <c r="N109" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O109" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P109" s="3">
+        <f>O109/(N109+O109)</f>
+        <v/>
+      </c>
+      <c r="Q109" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5392,7 +6367,7 @@
         <v/>
       </c>
       <c r="K110" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L110" s="2" t="n">
         <v>3</v>
@@ -5402,6 +6377,16 @@
         <v/>
       </c>
       <c r="N110" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P110" s="3">
+        <f>O110/(N110+O110)</f>
+        <v/>
+      </c>
+      <c r="Q110" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5445,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M111" s="3">
         <f>L111/(K111+L111)</f>
@@ -5454,6 +6439,16 @@
       <c r="N111" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O111" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P111" s="3">
+        <f>O111/(N111+O111)</f>
+        <v/>
+      </c>
+      <c r="Q111" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" ht="15.75" customHeight="1" thickBot="1">
       <c r="A112" s="1" t="inlineStr">
@@ -5495,13 +6490,23 @@
         <v>2</v>
       </c>
       <c r="L112" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M112" s="3">
         <f>L112/(K112+L112)</f>
         <v/>
       </c>
       <c r="N112" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" s="3">
+        <f>O112/(N112+O112)</f>
+        <v/>
+      </c>
+      <c r="Q112" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5542,7 +6547,7 @@
         <v/>
       </c>
       <c r="K113" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L113" s="2" t="n">
         <v>4</v>
@@ -5552,6 +6557,16 @@
         <v/>
       </c>
       <c r="N113" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O113" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P113" s="3">
+        <f>O113/(N113+O113)</f>
+        <v/>
+      </c>
+      <c r="Q113" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5592,16 +6607,26 @@
         <v/>
       </c>
       <c r="K114" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L114" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M114" s="3">
         <f>L114/(K114+L114)</f>
         <v/>
       </c>
       <c r="N114" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O114" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P114" s="3">
+        <f>O114/(N114+O114)</f>
+        <v/>
+      </c>
+      <c r="Q114" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5642,16 +6667,26 @@
         <v/>
       </c>
       <c r="K115" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L115" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M115" s="3">
         <f>L115/(K115+L115)</f>
         <v/>
       </c>
       <c r="N115" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O115" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P115" s="3">
+        <f>O115/(N115+O115)</f>
+        <v/>
+      </c>
+      <c r="Q115" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5695,13 +6730,23 @@
         <v>2</v>
       </c>
       <c r="L116" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M116" s="3">
         <f>L116/(K116+L116)</f>
         <v/>
       </c>
       <c r="N116" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P116" s="3">
+        <f>O116/(N116+O116)</f>
+        <v/>
+      </c>
+      <c r="Q116" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5750,35 +6795,50 @@
       </c>
       <c r="H119" s="1" t="inlineStr">
         <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I119" s="1" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J119" s="1" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K119" s="1" t="inlineStr">
+        <is>
           <t>Hit Errors</t>
         </is>
       </c>
-      <c r="I119" s="1" t="inlineStr">
+      <c r="L119" s="1" t="inlineStr">
         <is>
           <t>Hit Success</t>
         </is>
       </c>
-      <c r="J119" s="1" t="inlineStr">
+      <c r="M119" s="1" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="K119" s="1" t="inlineStr">
+      <c r="N119" s="1" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="L119" s="1" t="inlineStr">
+      <c r="O119" s="1" t="inlineStr">
         <is>
           <t>Block Successes</t>
         </is>
       </c>
-      <c r="M119" s="1" t="inlineStr">
+      <c r="P119" s="1" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="N119" s="1" t="inlineStr">
+      <c r="Q119" s="1" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -5821,16 +6881,26 @@
         <v/>
       </c>
       <c r="K120" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L120" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M120" s="3">
         <f>L120/(K120+L120)</f>
         <v/>
       </c>
       <c r="N120" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P120" s="3">
+        <f>O120/(N120+O120)</f>
+        <v/>
+      </c>
+      <c r="Q120" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5871,16 +6941,26 @@
         <v/>
       </c>
       <c r="K121" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L121" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M121" s="3">
         <f>L121/(K121+L121)</f>
         <v/>
       </c>
       <c r="N121" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O121" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P121" s="3">
+        <f>O121/(N121+O121)</f>
+        <v/>
+      </c>
+      <c r="Q121" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5921,16 +7001,26 @@
         <v/>
       </c>
       <c r="K122" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L122" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M122" s="3">
         <f>L122/(K122+L122)</f>
         <v/>
       </c>
       <c r="N122" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O122" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P122" s="3">
+        <f>O122/(N122+O122)</f>
+        <v/>
+      </c>
+      <c r="Q122" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5971,7 +7061,7 @@
         <v/>
       </c>
       <c r="K123" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L123" s="2" t="n">
         <v>3</v>
@@ -5981,6 +7071,16 @@
         <v/>
       </c>
       <c r="N123" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O123" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P123" s="3">
+        <f>O123/(N123+O123)</f>
+        <v/>
+      </c>
+      <c r="Q123" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6024,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M124" s="3">
         <f>L124/(K124+L124)</f>
@@ -6033,6 +7133,16 @@
       <c r="N124" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O124" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P124" s="3">
+        <f>O124/(N124+O124)</f>
+        <v/>
+      </c>
+      <c r="Q124" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" thickBot="1">
       <c r="A125" s="1" t="inlineStr">
@@ -6074,13 +7184,23 @@
         <v>2</v>
       </c>
       <c r="L125" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M125" s="3">
         <f>L125/(K125+L125)</f>
         <v/>
       </c>
       <c r="N125" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P125" s="3">
+        <f>O125/(N125+O125)</f>
+        <v/>
+      </c>
+      <c r="Q125" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6121,7 +7241,7 @@
         <v/>
       </c>
       <c r="K126" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L126" s="2" t="n">
         <v>4</v>
@@ -6131,6 +7251,16 @@
         <v/>
       </c>
       <c r="N126" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O126" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P126" s="3">
+        <f>O126/(N126+O126)</f>
+        <v/>
+      </c>
+      <c r="Q126" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6171,16 +7301,26 @@
         <v/>
       </c>
       <c r="K127" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L127" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M127" s="3">
         <f>L127/(K127+L127)</f>
         <v/>
       </c>
       <c r="N127" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P127" s="3">
+        <f>O127/(N127+O127)</f>
+        <v/>
+      </c>
+      <c r="Q127" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6221,16 +7361,26 @@
         <v/>
       </c>
       <c r="K128" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L128" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M128" s="3">
         <f>L128/(K128+L128)</f>
         <v/>
       </c>
       <c r="N128" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P128" s="3">
+        <f>O128/(N128+O128)</f>
+        <v/>
+      </c>
+      <c r="Q128" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,13 +7424,23 @@
         <v>2</v>
       </c>
       <c r="L129" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M129" s="3">
         <f>L129/(K129+L129)</f>
         <v/>
       </c>
       <c r="N129" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P129" s="3">
+        <f>O129/(N129+O129)</f>
+        <v/>
+      </c>
+      <c r="Q129" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6329,35 +7489,50 @@
       </c>
       <c r="H132" s="1" t="inlineStr">
         <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I132" s="1" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J132" s="1" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K132" s="1" t="inlineStr">
+        <is>
           <t>Hit Errors</t>
         </is>
       </c>
-      <c r="I132" s="1" t="inlineStr">
+      <c r="L132" s="1" t="inlineStr">
         <is>
           <t>Hit Success</t>
         </is>
       </c>
-      <c r="J132" s="1" t="inlineStr">
+      <c r="M132" s="1" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="K132" s="1" t="inlineStr">
+      <c r="N132" s="1" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="L132" s="1" t="inlineStr">
+      <c r="O132" s="1" t="inlineStr">
         <is>
           <t>Block Successes</t>
         </is>
       </c>
-      <c r="M132" s="1" t="inlineStr">
+      <c r="P132" s="1" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="N132" s="1" t="inlineStr">
+      <c r="Q132" s="1" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -6400,16 +7575,26 @@
         <v/>
       </c>
       <c r="K133" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L133" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M133" s="3">
         <f>L133/(K133+L133)</f>
         <v/>
       </c>
       <c r="N133" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P133" s="3">
+        <f>O133/(N133+O133)</f>
+        <v/>
+      </c>
+      <c r="Q133" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6450,16 +7635,26 @@
         <v/>
       </c>
       <c r="K134" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L134" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M134" s="3">
         <f>L134/(K134+L134)</f>
         <v/>
       </c>
       <c r="N134" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O134" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P134" s="3">
+        <f>O134/(N134+O134)</f>
+        <v/>
+      </c>
+      <c r="Q134" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6500,16 +7695,26 @@
         <v/>
       </c>
       <c r="K135" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L135" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M135" s="3">
         <f>L135/(K135+L135)</f>
         <v/>
       </c>
       <c r="N135" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O135" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P135" s="3">
+        <f>O135/(N135+O135)</f>
+        <v/>
+      </c>
+      <c r="Q135" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6550,7 +7755,7 @@
         <v/>
       </c>
       <c r="K136" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L136" s="2" t="n">
         <v>3</v>
@@ -6560,6 +7765,16 @@
         <v/>
       </c>
       <c r="N136" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P136" s="3">
+        <f>O136/(N136+O136)</f>
+        <v/>
+      </c>
+      <c r="Q136" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6603,7 +7818,7 @@
         <v>1</v>
       </c>
       <c r="L137" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M137" s="3">
         <f>L137/(K137+L137)</f>
@@ -6612,6 +7827,16 @@
       <c r="N137" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="O137" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P137" s="3">
+        <f>O137/(N137+O137)</f>
+        <v/>
+      </c>
+      <c r="Q137" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" ht="15.75" customHeight="1" thickBot="1">
       <c r="A138" s="1" t="inlineStr">
@@ -6653,13 +7878,23 @@
         <v>2</v>
       </c>
       <c r="L138" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M138" s="3">
         <f>L138/(K138+L138)</f>
         <v/>
       </c>
       <c r="N138" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P138" s="3">
+        <f>O138/(N138+O138)</f>
+        <v/>
+      </c>
+      <c r="Q138" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6700,7 +7935,7 @@
         <v/>
       </c>
       <c r="K139" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L139" s="2" t="n">
         <v>4</v>
@@ -6710,6 +7945,16 @@
         <v/>
       </c>
       <c r="N139" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O139" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P139" s="3">
+        <f>O139/(N139+O139)</f>
+        <v/>
+      </c>
+      <c r="Q139" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6750,16 +7995,26 @@
         <v/>
       </c>
       <c r="K140" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L140" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M140" s="3">
         <f>L140/(K140+L140)</f>
         <v/>
       </c>
       <c r="N140" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P140" s="3">
+        <f>O140/(N140+O140)</f>
+        <v/>
+      </c>
+      <c r="Q140" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6800,16 +8055,26 @@
         <v/>
       </c>
       <c r="K141" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L141" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M141" s="3">
         <f>L141/(K141+L141)</f>
         <v/>
       </c>
       <c r="N141" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O141" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P141" s="3">
+        <f>O141/(N141+O141)</f>
+        <v/>
+      </c>
+      <c r="Q141" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,13 +8118,23 @@
         <v>2</v>
       </c>
       <c r="L142" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M142" s="3">
         <f>L142/(K142+L142)</f>
         <v/>
       </c>
       <c r="N142" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P142" s="3">
+        <f>O142/(N142+O142)</f>
+        <v/>
+      </c>
+      <c r="Q142" s="2" t="n">
         <v>6</v>
       </c>
     </row>

--- a/data/volley_stats.xlsx
+++ b/data/volley_stats.xlsx
@@ -736,7 +736,7 @@
       </c>
       <c r="P5" s="3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="n">

--- a/data/volley_stats.xlsx
+++ b/data/volley_stats.xlsx
@@ -1515,73 +1515,73 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M17" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="N17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S17" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="T17" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" thickBot="1">
@@ -1591,40 +1591,40 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>0</v>
@@ -1638,11 +1638,11 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P18" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="n">
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
@@ -1678,18 +1678,18 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="N19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0</v>
@@ -1743,36 +1743,36 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
@@ -1787,14 +1787,14 @@
         </is>
       </c>
       <c r="N20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P20" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="n">
@@ -1819,58 +1819,58 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="N21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P21" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="n">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1" thickBot="1">
@@ -1898,44 +1898,44 @@
         <v>0</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="N22" s="2" t="n">
@@ -1974,15 +1974,15 @@
         <v>0</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>0</v>
@@ -1996,11 +1996,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="N23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2" t="n">
         <v>0</v>
@@ -2047,29 +2047,29 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>0</v>
@@ -2094,11 +2094,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="n">
@@ -2126,15 +2126,15 @@
         <v>0</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>0</v>
@@ -2148,33 +2148,33 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="N25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="n">

--- a/data/volley_stats.xlsx
+++ b/data/volley_stats.xlsx
@@ -6653,51 +6653,51 @@
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="E94" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G94" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H94" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K94" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L94" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="N94" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94" s="2" t="n">
         <v>0</v>
@@ -6711,11 +6711,11 @@
         <v>0</v>
       </c>
       <c r="R94" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S94" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="T94" s="2" t="n">
@@ -6729,69 +6729,69 @@
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G95" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="H95" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="K95" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L95" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M95" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="N95" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O95" s="2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P95" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q95" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R95" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S95" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="T95" s="2" t="n">
@@ -6805,36 +6805,36 @@
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G96" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="H96" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J96" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K96" s="2" t="n">
@@ -6852,11 +6852,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P96" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q96" s="2" t="n">
@@ -6892,14 +6892,14 @@
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="H97" s="2" t="n">
@@ -6960,33 +6960,33 @@
         <v>0</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G98" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="H98" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="K98" s="2" t="n">
@@ -7001,18 +7001,18 @@
         </is>
       </c>
       <c r="N98" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P98" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="Q98" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" s="2" t="n">
         <v>0</v>
@@ -7044,25 +7044,25 @@
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="H99" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K99" s="2" t="n">
@@ -7080,11 +7080,11 @@
         <v>0</v>
       </c>
       <c r="O99" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q99" s="2" t="n">
@@ -7109,40 +7109,40 @@
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G100" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="H100" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K100" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" s="2" t="n">
         <v>0</v>
@@ -7156,11 +7156,11 @@
         <v>0</v>
       </c>
       <c r="O100" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q100" s="2" t="n">
@@ -7188,37 +7188,37 @@
         <v>0</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="H101" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J101" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K101" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" s="2" t="n">
         <v>0</v>
@@ -7240,14 +7240,14 @@
         </is>
       </c>
       <c r="Q101" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R101" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="T101" s="2" t="n">
@@ -7261,18 +7261,18 @@
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F102" s="2" t="n">
         <v>0</v>
@@ -7283,14 +7283,14 @@
         </is>
       </c>
       <c r="H102" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J102" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K102" s="2" t="n">
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>0</v>
@@ -7348,25 +7348,25 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="H103" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="K103" s="2" t="n">
@@ -7381,29 +7381,29 @@
         </is>
       </c>
       <c r="N103" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P103" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="Q103" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R103" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S103" s="3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="T103" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1" thickBot="1">

--- a/data/volley_stats.xlsx
+++ b/data/volley_stats.xlsx
@@ -454,10 +454,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -467,17 +467,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" s="4">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Season No.</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Player Count</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Number of Seasons</t>
         </is>
@@ -485,148 +475,241 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" s="4">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Season No.</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>Player Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="K2" t="n">
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="4" thickBot="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Player Names</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30.75" customHeight="1" s="4" thickBot="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Brandon Chan</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Callum Ashton</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Daniel Park</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Deidre Truong</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Edward Kang</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Kevin Ma</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Kevin Tang</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Lachlan Denham</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Mimi Chen</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Will Ouyang</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1" s="4">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Season No.</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>Player Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="4" thickBot="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Player Names</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30.75" customHeight="1" s="4" thickBot="1">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Brandon Chan</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Callum Ashton</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Daniel Park</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Deidre Truong</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>Edward Kang</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>Kevin Ma</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>Kevin Tang</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>Lachlan Denham</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>Mimi Chen</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>Will Ouyang</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" s="4">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Season No.</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>Player Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A3" t="inlineStr">
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="4" thickBot="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Player Names</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="30.75" customHeight="1" s="4" thickBot="1">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="16" ht="30.75" customHeight="1" s="4" thickBot="1">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Daniel Park</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Edward Kang</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="I16" s="5" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>Will Ouyang</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1" s="4">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Season No.</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>Player Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Player Names</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="30.75" customHeight="1" s="4" thickBot="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Brandon Chan</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Callum Ashton</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Daniel Park</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Deidre Truong</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>Edward Kang</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>Kevin Ma</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>Kevin Tang</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>Lachlan Denham</t>
-        </is>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>Mimi Chen</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
         </is>
@@ -646,7 +729,7 @@
   </sheetPr>
   <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
@@ -10244,7 +10327,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/data/volley_stats.xlsx
+++ b/data/volley_stats.xlsx
@@ -9,7 +9,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Season 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Season 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Season 3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -80,10 +79,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -454,31 +453,146 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10.7109375" customWidth="1" style="4" min="1" max="1"/>
-    <col width="12.140625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="10.7109375" customWidth="1" style="5" min="1" max="1"/>
+    <col width="12.140625" customWidth="1" style="5" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" s="4">
+    <row r="1" ht="30" customHeight="1" s="5" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>Number of Seasons</t>
         </is>
       </c>
-    </row>
-    <row r="2">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Team Name</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>WEEK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>We Take Those</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" s="5">
       <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Season No.</t>
@@ -498,66 +612,66 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="5" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>Player Names</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="30.75" customHeight="1" s="4" thickBot="1">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="30.75" customHeight="1" s="5" thickBot="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Daniel Park</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>Edward Kang</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
         </is>
       </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
         </is>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1" s="4">
+    <row r="8" ht="30" customHeight="1" s="5">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Season No.</t>
@@ -574,146 +688,44 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="4" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="5">
       <c r="A10" t="inlineStr">
         <is>
           <t>Player Names</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="30.75" customHeight="1" s="4" thickBot="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Brandon Chan</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>Callum Ashton</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>Daniel Park</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>Deidre Truong</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>Edward Kang</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>Kevin Ma</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>Kevin Tang</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
-        <is>
-          <t>Lachlan Denham</t>
-        </is>
-      </c>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>Mimi Chen</t>
-        </is>
-      </c>
-      <c r="J11" s="5" t="inlineStr">
-        <is>
-          <t>Will Ouyang</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="30" customHeight="1" s="4">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Season No.</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>Player Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Player Names</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="30.75" customHeight="1" s="4" thickBot="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>Brandon Chan</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>Callum Ashton</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>Daniel Park</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>Deidre Truong</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>Edward Kang</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>Kevin Ma</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>Kevin Tang</t>
-        </is>
-      </c>
-      <c r="H16" s="5" t="inlineStr">
-        <is>
-          <t>Lachlan Denham</t>
-        </is>
-      </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>Mimi Chen</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>Will Ouyang</t>
-        </is>
-      </c>
+    <row r="11" ht="30.75" customHeight="1" s="5">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="6" t="n"/>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+      <c r="I11" s="6" t="n"/>
+      <c r="J11" s="6" t="n"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" s="5">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="6" t="n"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="5"/>
+    <row r="16" ht="30.75" customHeight="1" s="5">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="6" t="n"/>
+      <c r="I16" s="6" t="n"/>
+      <c r="J16" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -729,20 +741,20 @@
   </sheetPr>
   <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="1" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>WEEK#</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="39.75" customHeight="1" s="4" thickBot="1">
+    <row r="2" ht="39.75" customHeight="1" s="5" thickBot="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>VS 'TEAM'</t>
@@ -844,7 +856,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="3" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
@@ -920,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="4" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
@@ -996,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="5" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Daniel Park</t>
@@ -1072,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="6" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
@@ -1148,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="7" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Edward Kang</t>
@@ -1224,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="8" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
@@ -1300,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="9" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
@@ -1376,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="10" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
@@ -1452,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="11" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
@@ -1528,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="12" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
@@ -1604,14 +1616,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="14" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A14" t="inlineStr">
         <is>
           <t>WEEK#</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="39.75" customHeight="1" s="4" thickBot="1">
+    <row r="15" ht="39.75" customHeight="1" s="5" thickBot="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>VS 'TEAM'</t>
@@ -1713,7 +1725,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="16" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
@@ -1789,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="17" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
@@ -1865,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="18" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Daniel Park</t>
@@ -1941,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="19" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
@@ -2017,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="20" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Edward Kang</t>
@@ -2093,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="21" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
@@ -2169,7 +2181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="22" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
@@ -2245,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="23" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
@@ -2321,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="24" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
@@ -2397,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="25" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
@@ -2473,14 +2485,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="27" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A27" t="inlineStr">
         <is>
           <t>WEEK#</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="39.75" customHeight="1" s="4" thickBot="1">
+    <row r="28" ht="39.75" customHeight="1" s="5" thickBot="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>VS 'TEAM'</t>
@@ -2582,7 +2594,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="29" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
@@ -2658,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="30" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
@@ -2734,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="31" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Daniel Park</t>
@@ -2810,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="32" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
@@ -2886,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="33" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>Edward Kang</t>
@@ -2962,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="34" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
@@ -3038,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="35" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
@@ -3114,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="36" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
@@ -3190,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="37" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
@@ -3266,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="38" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
@@ -3342,14 +3354,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="40" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A40" t="inlineStr">
         <is>
           <t>WEEK#</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="39.75" customHeight="1" s="4" thickBot="1">
+    <row r="41" ht="39.75" customHeight="1" s="5" thickBot="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>VS 'TEAM'</t>
@@ -3451,7 +3463,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="42" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
@@ -3527,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="43" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
@@ -3603,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="44" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Daniel Park</t>
@@ -3679,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="45" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
@@ -3755,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="46" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Edward Kang</t>
@@ -3831,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="47" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
@@ -3907,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="48" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
@@ -3983,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="49" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
@@ -4059,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="50" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
@@ -4135,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="51" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
@@ -4211,14 +4223,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="53" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A53" t="inlineStr">
         <is>
           <t>WEEK#</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="39.75" customHeight="1" s="4" thickBot="1">
+    <row r="54" ht="39.75" customHeight="1" s="5" thickBot="1">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>VS 'TEAM'</t>
@@ -4320,7 +4332,7 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="55" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
@@ -4396,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="56" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
@@ -4472,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="57" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Daniel Park</t>
@@ -4548,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="58" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
@@ -4624,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="59" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Edward Kang</t>
@@ -4700,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="60" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
@@ -4776,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="61" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
@@ -4852,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="62" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
@@ -4928,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="63" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
@@ -5004,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="64" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
@@ -5080,14 +5092,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="66" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A66" t="inlineStr">
         <is>
           <t>WEEK#</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="39.75" customHeight="1" s="4" thickBot="1">
+    <row r="67" ht="39.75" customHeight="1" s="5" thickBot="1">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>VS 'TEAM'</t>
@@ -5189,7 +5201,7 @@
         </is>
       </c>
     </row>
-    <row r="68" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="68" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
@@ -5265,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="69" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
@@ -5341,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="70" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Daniel Park</t>
@@ -5417,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="71" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
@@ -5493,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="72" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Edward Kang</t>
@@ -5569,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="73" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
@@ -5645,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="74" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
@@ -5721,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="75" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
@@ -5797,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="76" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
@@ -5873,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="77" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
@@ -5949,14 +5961,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="79" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A79" t="inlineStr">
         <is>
           <t>WEEK#</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="39.75" customHeight="1" s="4" thickBot="1">
+    <row r="80" ht="39.75" customHeight="1" s="5" thickBot="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>VS 'TEAM'</t>
@@ -6058,7 +6070,7 @@
         </is>
       </c>
     </row>
-    <row r="81" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="81" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
@@ -6134,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="82" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
@@ -6210,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="83" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Daniel Park</t>
@@ -6286,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="84" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
@@ -6362,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="85" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Edward Kang</t>
@@ -6438,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="86" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
@@ -6514,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="87" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
@@ -6590,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="88" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
@@ -6666,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="89" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
@@ -6742,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="90" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
@@ -6818,14 +6830,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="92" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A92" t="inlineStr">
         <is>
           <t>WEEK#</t>
         </is>
       </c>
     </row>
-    <row r="93" ht="39.75" customHeight="1" s="4" thickBot="1">
+    <row r="93" ht="39.75" customHeight="1" s="5" thickBot="1">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>VS 'TEAM'</t>
@@ -6927,7 +6939,7 @@
         </is>
       </c>
     </row>
-    <row r="94" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="94" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
@@ -7003,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="95" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
@@ -7079,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="96" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Daniel Park</t>
@@ -7155,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="97" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
@@ -7231,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="98" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Edward Kang</t>
@@ -7307,7 +7319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="99" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
@@ -7383,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="100" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
@@ -7459,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="101" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
@@ -7535,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="102" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
@@ -7611,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="103" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A103" s="1" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
@@ -7687,14 +7699,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="105" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A105" t="inlineStr">
         <is>
           <t>WEEK#</t>
         </is>
       </c>
     </row>
-    <row r="106" ht="39.75" customHeight="1" s="4" thickBot="1">
+    <row r="106" ht="39.75" customHeight="1" s="5" thickBot="1">
       <c r="A106" s="1" t="inlineStr">
         <is>
           <t>VS 'TEAM'</t>
@@ -7796,7 +7808,7 @@
         </is>
       </c>
     </row>
-    <row r="107" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="107" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A107" s="1" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
@@ -7872,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="108" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A108" s="1" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
@@ -7948,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="109" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A109" s="1" t="inlineStr">
         <is>
           <t>Daniel Park</t>
@@ -8024,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="110" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A110" s="1" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
@@ -8100,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="111" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A111" s="1" t="inlineStr">
         <is>
           <t>Edward Kang</t>
@@ -8176,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="112" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A112" s="1" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
@@ -8252,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="113" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A113" s="1" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
@@ -8328,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="114" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A114" s="1" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
@@ -8404,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="115" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A115" s="1" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
@@ -8480,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="116" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A116" s="1" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
@@ -8556,14 +8568,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="118" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A118" t="inlineStr">
         <is>
           <t>WEEK#</t>
         </is>
       </c>
     </row>
-    <row r="119" ht="39.75" customHeight="1" s="4" thickBot="1">
+    <row r="119" ht="39.75" customHeight="1" s="5" thickBot="1">
       <c r="A119" s="1" t="inlineStr">
         <is>
           <t>VS 'TEAM'</t>
@@ -8665,7 +8677,7 @@
         </is>
       </c>
     </row>
-    <row r="120" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="120" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A120" s="1" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
@@ -8741,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="121" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A121" s="1" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
@@ -8817,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="122" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A122" s="1" t="inlineStr">
         <is>
           <t>Daniel Park</t>
@@ -8893,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="123" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A123" s="1" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
@@ -8969,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="124" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A124" s="1" t="inlineStr">
         <is>
           <t>Edward Kang</t>
@@ -9045,7 +9057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="125" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A125" s="1" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
@@ -9121,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="126" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A126" s="1" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
@@ -9197,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="127" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A127" s="1" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
@@ -9273,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="128" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A128" s="1" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
@@ -9349,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="129" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A129" s="1" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
@@ -9425,14 +9437,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="131" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A131" t="inlineStr">
         <is>
           <t>WEEK#</t>
         </is>
       </c>
     </row>
-    <row r="132" ht="39.75" customHeight="1" s="4" thickBot="1">
+    <row r="132" ht="39.75" customHeight="1" s="5" thickBot="1">
       <c r="A132" s="1" t="inlineStr">
         <is>
           <t>VS 'TEAM'</t>
@@ -9534,7 +9546,7 @@
         </is>
       </c>
     </row>
-    <row r="133" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="133" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A133" s="1" t="inlineStr">
         <is>
           <t>Brandon Chan</t>
@@ -9610,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="134" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A134" s="1" t="inlineStr">
         <is>
           <t>Callum Ashton</t>
@@ -9686,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="135" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A135" s="1" t="inlineStr">
         <is>
           <t>Daniel Park</t>
@@ -9762,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="136" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A136" s="1" t="inlineStr">
         <is>
           <t>Deidre Truong</t>
@@ -9838,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="137" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A137" s="1" t="inlineStr">
         <is>
           <t>Edward Kang</t>
@@ -9914,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1" s="4" thickBot="1">
+    <row r="138" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A138" s="1" t="inlineStr">
         <is>
           <t>Kevin Ma</t>
@@ -9990,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="139" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A139" s="1" t="inlineStr">
         <is>
           <t>Kevin Tang</t>
@@ -10066,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="140" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A140" s="1" t="inlineStr">
         <is>
           <t>Lachlan Denham</t>
@@ -10142,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="141" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A141" s="1" t="inlineStr">
         <is>
           <t>Mimi Chen</t>
@@ -10218,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" ht="27" customHeight="1" s="4" thickBot="1">
+    <row r="142" ht="27" customHeight="1" s="5" thickBot="1">
       <c r="A142" s="1" t="inlineStr">
         <is>
           <t>Will Ouyang</t>
@@ -10306,32 +10318,1214 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Week 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Week 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Week 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Week 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Week 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Week 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Week 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Week 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Week 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/volley_stats.xlsx
+++ b/data/volley_stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Info" sheetId="1" state="visible" r:id="rId1"/>
@@ -454,13 +454,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.7109375" customWidth="1" style="5" min="1" max="1"/>
     <col width="12.140625" customWidth="1" style="5" min="2" max="2"/>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="5">
@@ -715,8 +715,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="30.75" customHeight="1" s="5"/>
-    <row r="12"/>
+    <row r="11" ht="30.75" customHeight="1" s="5">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+    </row>
     <row r="13" ht="30" customHeight="1" s="5">
       <c r="A13" t="inlineStr">
         <is>
@@ -742,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="5">
@@ -752,7 +757,13 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="30.75" customHeight="1" s="5"/>
+    <row r="16" ht="30.75" customHeight="1" s="5">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LachlanDenham</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -10344,7 +10355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10461,110 +10472,175 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Week 2</t>
-        </is>
-      </c>
-    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4"/>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>VS 'TEAM'</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Serve Error</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Serve Success</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Serve %</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Receive Errors</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Receive Passes</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Receive %</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Set Errors</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Set Success</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Set %</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Spike Errors</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Spike Success</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Tip Errors</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Tip Success</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Tip %</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Block Success</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -10573,225 +10649,246 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Week 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Faults</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Week 4</t>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Faults</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
-      </c>
-    </row>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12"/>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Week 5</t>
+          <t>Week 4</t>
         </is>
       </c>
     </row>
@@ -10897,110 +10994,175 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Week 6</t>
-        </is>
-      </c>
-    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Week 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>VS 'TEAM'</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Serve Error</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Serve Success</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Serve %</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Receive Errors</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Receive Passes</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Receive %</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Set Errors</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Set Success</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Set %</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Spike Errors</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Spike Success</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>Tip Errors</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Tip Success</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>Tip %</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Block Success</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -11009,225 +11171,246 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Week 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>Faults</t>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Week 6</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Week 8</t>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Faults</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
-      </c>
-    </row>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24"/>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Week 9</t>
+          <t>Week 7</t>
         </is>
       </c>
     </row>
@@ -11333,110 +11516,175 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Week 10</t>
-        </is>
-      </c>
-    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28"/>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>VS 'TEAM'</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Serve Error</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Serve Success</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Serve %</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Receive Errors</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Receive Passes</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Receive %</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Set Errors</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Set Success</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Set %</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Spike Errors</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>Spike Success</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>Tip Errors</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Tip Success</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>Tip %</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>Block Success</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -11445,225 +11693,246 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Week 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Faults</t>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32"/>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Week 9</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Week 12</t>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Faults</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
-      </c>
-    </row>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36"/>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Week 13</t>
+          <t>Week 10</t>
         </is>
       </c>
     </row>
@@ -11769,110 +12038,175 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Week 14</t>
-        </is>
-      </c>
-    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40"/>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Week 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>VS 'TEAM'</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Serve Error</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Serve Success</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Serve %</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Receive Errors</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Receive Passes</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Receive %</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Set Errors</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Set Success</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Set %</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>Spike Errors</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>Spike Success</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>Tip Errors</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>Tip Success</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>Tip %</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>Block Success</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -11881,110 +12215,1631 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44"/>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Week 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48"/>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Week 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52"/>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Week 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56"/>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>Week 15</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>VS 'TEAM'</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Serve Error</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Serve Success</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Serve %</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Receive Errors</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Receive Passes</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Receive %</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Set Errors</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>Set Success</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Set %</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>Spike Errors</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>Spike Success</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>Tip Errors</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>Tip Success</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>Tip %</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>Block Success</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60"/>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Week 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64"/>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Week 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68"/>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Week 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Week 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76"/>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Week 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Faults</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BrandonChan</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11998,13 +13853,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18.5703125" customWidth="1" style="5" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -12115,110 +13973,174 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Week 2</t>
-        </is>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LachlanDenham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>VS 'TEAM'</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Serve Error</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Serve Success</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Serve %</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Receive Errors</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Receive Passes</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Receive %</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Set Errors</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Set Success</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Set %</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Spike Errors</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Spike Success</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Tip Errors</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Tip Success</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Tip %</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Block Success</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -12227,225 +14149,244 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>LachlanDenham</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Week 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Faults</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Week 4</t>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Faults</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
+          <t>LachlanDenham</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Week 5</t>
+          <t>Week 4</t>
         </is>
       </c>
     </row>
@@ -12551,110 +14492,174 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Week 6</t>
-        </is>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LachlanDenham</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Week 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>VS 'TEAM'</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Serve Error</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Serve Success</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Serve %</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Receive Errors</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Receive Passes</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Receive %</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Set Errors</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Set Success</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Set %</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Spike Errors</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Spike Success</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>Tip Errors</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Tip Success</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>Tip %</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Block Success</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -12663,225 +14668,244 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Week 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>Faults</t>
+          <t>LachlanDenham</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Week 6</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Week 8</t>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Faults</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
+          <t>LachlanDenham</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Week 9</t>
+          <t>Week 7</t>
         </is>
       </c>
     </row>
@@ -12987,110 +15011,174 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Week 10</t>
-        </is>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LachlanDenham</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>VS 'TEAM'</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Serve Error</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Serve Success</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Serve %</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Receive Errors</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Receive Passes</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Receive %</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Set Errors</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Set Success</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Set %</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Spike Errors</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>Spike Success</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>Hit %</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>Tip Errors</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Tip Success</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>Tip %</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>Block Errors</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>Block Success</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>Block %</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>Faults</t>
         </is>
@@ -13099,225 +15187,244 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Week 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Faults</t>
+          <t>LachlanDenham</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Week 9</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Week 12</t>
+          <t>VS 'TEAM'</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Serve Error</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Serve Success</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Serve %</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Receive Errors</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Receive Passes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Receive %</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Set Errors</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Set Success</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Set %</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Spike Errors</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Spike Success</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Hit %</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tip Errors</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Tip Success</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Tip %</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Block Errors</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Block Success</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Block %</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Faults</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
+          <t>LachlanDenham</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Week 13</t>
+          <t>Week 10</t>
         </is>
       </c>
     </row>
@@ -13423,767 +15530,68 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Week 14</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Week 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Week 16</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Week 17</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Week 18</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Week 19</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Week 20</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>VS 'TEAM'</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Serve Error</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Serve Success</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Serve %</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Receive Errors</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Receive Passes</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Receive %</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Set Errors</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Set Success</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Set %</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Spike Errors</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Spike Success</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Hit %</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Tip Errors</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Tip Success</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Tip %</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Block Errors</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Block Success</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Block %</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>Faults</t>
-        </is>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LachlanDenham</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/volley_stats.xlsx
+++ b/data/volley_stats.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="86">
   <si>
     <t>Number of Seasons</t>
   </si>
@@ -131,6 +131,39 @@
   </si>
   <si>
     <t>Will Ouyang</t>
+  </si>
+  <si>
+    <t>Player Nicknames</t>
+  </si>
+  <si>
+    <t>Chan</t>
+  </si>
+  <si>
+    <t>Callum</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Deidre</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Kema</t>
+  </si>
+  <si>
+    <t>KTang</t>
+  </si>
+  <si>
+    <t>Lachy</t>
+  </si>
+  <si>
+    <t>Mimi</t>
+  </si>
+  <si>
+    <t>Will</t>
   </si>
   <si>
     <t>WEEK#</t>
@@ -298,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -308,9 +341,6 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -617,16 +647,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -709,10 +739,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
@@ -730,99 +760,147 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -833,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -841,7 +919,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -917,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -926,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -935,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -944,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -953,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -962,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
@@ -979,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -988,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -997,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1006,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1015,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1024,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
@@ -1041,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1050,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1059,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1068,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1077,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1086,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
@@ -1103,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1112,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1121,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1130,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1139,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1148,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
@@ -1165,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1174,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1183,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1192,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1201,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1210,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1227,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1236,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1245,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -1254,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1263,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1272,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -1289,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1298,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1307,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -1316,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1325,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -1334,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
@@ -1351,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1360,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1369,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -1378,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -1387,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -1396,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
@@ -1413,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1422,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1431,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -1440,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -1449,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -1458,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
@@ -1475,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1484,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1493,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -1502,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -1511,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -1520,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -1528,7 +1606,7 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1604,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1613,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1622,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -1631,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -1640,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -1649,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
@@ -1666,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2">
         <v>3</v>
@@ -1675,7 +1753,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1684,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="K17" s="2">
         <v>2</v>
@@ -1693,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -1702,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -1711,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="T17" s="2">
         <v>2</v>
@@ -1728,7 +1806,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1737,7 +1815,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1746,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -1755,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -1764,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -1773,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
@@ -1790,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1799,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -1808,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -1817,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N19" s="2">
         <v>1</v>
@@ -1826,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="2">
         <v>1</v>
@@ -1835,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
@@ -1852,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1861,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -1870,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -1879,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N20" s="2">
         <v>1</v>
@@ -1888,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -1897,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -1914,7 +1992,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2">
         <v>6</v>
@@ -1923,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H21" s="2">
         <v>3</v>
@@ -1932,7 +2010,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -1941,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N21" s="2">
         <v>1</v>
@@ -1950,7 +2028,7 @@
         <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -1959,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T21" s="2">
         <v>2</v>
@@ -1976,7 +2054,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
@@ -1985,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1994,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -2003,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -2012,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -2021,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -2038,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -2047,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -2056,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -2065,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N23" s="2">
         <v>1</v>
@@ -2074,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -2083,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
@@ -2100,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2">
         <v>3</v>
@@ -2109,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H24" s="2">
         <v>2</v>
@@ -2118,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -2127,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -2136,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -2145,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
@@ -2162,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -2171,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -2180,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -2189,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
@@ -2198,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -2207,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
@@ -2215,7 +2293,7 @@
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2291,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -2300,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -2309,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -2318,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -2327,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
@@ -2336,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
@@ -2353,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -2362,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -2371,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -2380,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -2389,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
@@ -2398,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
@@ -2415,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2424,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2433,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -2442,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -2451,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="2">
         <v>0</v>
@@ -2460,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
@@ -2477,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -2486,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2495,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -2504,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -2513,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -2522,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
@@ -2539,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2548,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2557,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -2566,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -2575,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="2">
         <v>0</v>
@@ -2584,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
@@ -2601,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -2610,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2619,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
@@ -2628,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
@@ -2637,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
@@ -2646,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
@@ -2663,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2672,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2681,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
@@ -2690,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
@@ -2699,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q35" s="2">
         <v>0</v>
@@ -2708,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
@@ -2725,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -2734,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2743,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
@@ -2752,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
@@ -2761,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q36" s="2">
         <v>0</v>
@@ -2770,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
@@ -2787,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -2796,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2805,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -2814,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
@@ -2823,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q37" s="2">
         <v>0</v>
@@ -2832,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
@@ -2849,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -2858,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2867,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
@@ -2876,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -2885,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="2">
         <v>0</v>
@@ -2894,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
@@ -2902,7 +2980,7 @@
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2978,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -2987,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2996,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -3005,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -3014,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q42" s="2">
         <v>0</v>
@@ -3023,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
@@ -3040,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -3049,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -3058,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -3067,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
@@ -3076,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="2">
         <v>0</v>
@@ -3085,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
@@ -3102,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -3111,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -3120,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -3129,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -3138,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q44" s="2">
         <v>0</v>
@@ -3147,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T44" s="2">
         <v>0</v>
@@ -3164,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -3173,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -3182,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
@@ -3191,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -3200,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q45" s="2">
         <v>0</v>
@@ -3209,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T45" s="2">
         <v>0</v>
@@ -3226,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -3235,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -3244,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
@@ -3253,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -3262,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q46" s="2">
         <v>0</v>
@@ -3271,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
@@ -3288,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -3297,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -3306,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -3315,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -3324,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q47" s="2">
         <v>0</v>
@@ -3333,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T47" s="2">
         <v>0</v>
@@ -3350,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -3359,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -3368,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
@@ -3377,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
@@ -3386,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="2">
         <v>0</v>
@@ -3395,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T48" s="2">
         <v>0</v>
@@ -3412,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -3421,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -3430,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
@@ -3439,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N49" s="2">
         <v>0</v>
@@ -3448,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q49" s="2">
         <v>0</v>
@@ -3457,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T49" s="2">
         <v>0</v>
@@ -3474,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -3483,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -3492,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
@@ -3501,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N50" s="2">
         <v>0</v>
@@ -3510,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q50" s="2">
         <v>0</v>
@@ -3519,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T50" s="2">
         <v>0</v>
@@ -3536,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -3545,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -3554,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>
@@ -3563,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N51" s="2">
         <v>0</v>
@@ -3572,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q51" s="2">
         <v>0</v>
@@ -3581,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T51" s="2">
         <v>0</v>
@@ -3589,7 +3667,7 @@
     </row>
     <row r="53" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3665,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -3674,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -3683,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
@@ -3692,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N55" s="2">
         <v>0</v>
@@ -3701,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q55" s="2">
         <v>0</v>
@@ -3710,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T55" s="2">
         <v>0</v>
@@ -3727,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -3736,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -3745,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K56" s="2">
         <v>0</v>
@@ -3754,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N56" s="2">
         <v>0</v>
@@ -3763,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q56" s="2">
         <v>0</v>
@@ -3772,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T56" s="2">
         <v>0</v>
@@ -3789,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -3798,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -3807,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K57" s="2">
         <v>0</v>
@@ -3816,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N57" s="2">
         <v>0</v>
@@ -3825,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q57" s="2">
         <v>0</v>
@@ -3834,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
@@ -3851,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -3860,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -3869,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K58" s="2">
         <v>0</v>
@@ -3878,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N58" s="2">
         <v>0</v>
@@ -3887,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q58" s="2">
         <v>0</v>
@@ -3896,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T58" s="2">
         <v>0</v>
@@ -3913,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -3922,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -3931,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K59" s="2">
         <v>0</v>
@@ -3940,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N59" s="2">
         <v>0</v>
@@ -3949,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q59" s="2">
         <v>0</v>
@@ -3958,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T59" s="2">
         <v>0</v>
@@ -3975,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -3984,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -3993,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K60" s="2">
         <v>0</v>
@@ -4002,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N60" s="2">
         <v>0</v>
@@ -4011,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q60" s="2">
         <v>0</v>
@@ -4020,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T60" s="2">
         <v>0</v>
@@ -4037,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -4046,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -4055,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K61" s="2">
         <v>0</v>
@@ -4064,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N61" s="2">
         <v>0</v>
@@ -4073,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q61" s="2">
         <v>0</v>
@@ -4082,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T61" s="2">
         <v>0</v>
@@ -4099,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -4108,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -4117,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K62" s="2">
         <v>0</v>
@@ -4126,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N62" s="2">
         <v>0</v>
@@ -4135,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q62" s="2">
         <v>0</v>
@@ -4144,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T62" s="2">
         <v>0</v>
@@ -4161,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -4170,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -4179,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K63" s="2">
         <v>0</v>
@@ -4188,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N63" s="2">
         <v>0</v>
@@ -4197,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q63" s="2">
         <v>0</v>
@@ -4206,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T63" s="2">
         <v>0</v>
@@ -4223,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -4232,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -4241,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K64" s="2">
         <v>0</v>
@@ -4250,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N64" s="2">
         <v>0</v>
@@ -4259,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q64" s="2">
         <v>0</v>
@@ -4268,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T64" s="2">
         <v>0</v>
@@ -4276,7 +4354,7 @@
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4352,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -4361,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -4370,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K68" s="2">
         <v>0</v>
@@ -4379,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N68" s="2">
         <v>0</v>
@@ -4388,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q68" s="2">
         <v>0</v>
@@ -4397,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T68" s="2">
         <v>0</v>
@@ -4414,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -4423,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -4432,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K69" s="2">
         <v>0</v>
@@ -4441,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N69" s="2">
         <v>0</v>
@@ -4450,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q69" s="2">
         <v>0</v>
@@ -4459,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T69" s="2">
         <v>0</v>
@@ -4476,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -4485,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -4494,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K70" s="2">
         <v>0</v>
@@ -4503,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N70" s="2">
         <v>0</v>
@@ -4512,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q70" s="2">
         <v>0</v>
@@ -4521,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T70" s="2">
         <v>0</v>
@@ -4538,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -4547,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -4556,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K71" s="2">
         <v>0</v>
@@ -4565,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N71" s="2">
         <v>0</v>
@@ -4574,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q71" s="2">
         <v>0</v>
@@ -4583,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T71" s="2">
         <v>0</v>
@@ -4600,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -4609,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -4618,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K72" s="2">
         <v>0</v>
@@ -4627,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N72" s="2">
         <v>0</v>
@@ -4636,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q72" s="2">
         <v>0</v>
@@ -4645,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T72" s="2">
         <v>0</v>
@@ -4662,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -4671,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -4680,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K73" s="2">
         <v>0</v>
@@ -4689,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N73" s="2">
         <v>0</v>
@@ -4698,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q73" s="2">
         <v>0</v>
@@ -4707,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T73" s="2">
         <v>0</v>
@@ -4724,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -4733,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -4742,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K74" s="2">
         <v>0</v>
@@ -4751,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N74" s="2">
         <v>0</v>
@@ -4760,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q74" s="2">
         <v>0</v>
@@ -4769,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T74" s="2">
         <v>0</v>
@@ -4786,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E75" s="2">
         <v>0</v>
@@ -4795,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -4804,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K75" s="2">
         <v>0</v>
@@ -4813,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N75" s="2">
         <v>0</v>
@@ -4822,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q75" s="2">
         <v>0</v>
@@ -4831,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T75" s="2">
         <v>0</v>
@@ -4848,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -4857,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -4866,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K76" s="2">
         <v>0</v>
@@ -4875,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N76" s="2">
         <v>0</v>
@@ -4884,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q76" s="2">
         <v>0</v>
@@ -4893,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T76" s="2">
         <v>0</v>
@@ -4910,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -4919,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -4928,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K77" s="2">
         <v>0</v>
@@ -4937,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N77" s="2">
         <v>0</v>
@@ -4946,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q77" s="2">
         <v>0</v>
@@ -4955,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T77" s="2">
         <v>0</v>
@@ -4963,7 +5041,7 @@
     </row>
     <row r="79" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5039,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -5048,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -5057,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K81" s="2">
         <v>0</v>
@@ -5066,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N81" s="2">
         <v>0</v>
@@ -5075,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q81" s="2">
         <v>0</v>
@@ -5084,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T81" s="2">
         <v>0</v>
@@ -5101,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -5110,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H82" s="2">
         <v>0</v>
@@ -5119,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K82" s="2">
         <v>0</v>
@@ -5128,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N82" s="2">
         <v>0</v>
@@ -5137,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q82" s="2">
         <v>0</v>
@@ -5146,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T82" s="2">
         <v>0</v>
@@ -5163,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -5172,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -5181,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K83" s="2">
         <v>0</v>
@@ -5190,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N83" s="2">
         <v>0</v>
@@ -5199,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q83" s="2">
         <v>0</v>
@@ -5208,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T83" s="2">
         <v>0</v>
@@ -5225,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -5234,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -5243,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K84" s="2">
         <v>0</v>
@@ -5252,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N84" s="2">
         <v>0</v>
@@ -5261,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q84" s="2">
         <v>0</v>
@@ -5270,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T84" s="2">
         <v>0</v>
@@ -5287,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -5296,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -5305,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K85" s="2">
         <v>0</v>
@@ -5314,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N85" s="2">
         <v>0</v>
@@ -5323,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q85" s="2">
         <v>0</v>
@@ -5332,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T85" s="2">
         <v>0</v>
@@ -5349,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -5358,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -5367,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K86" s="2">
         <v>0</v>
@@ -5376,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N86" s="2">
         <v>0</v>
@@ -5385,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q86" s="2">
         <v>0</v>
@@ -5394,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T86" s="2">
         <v>0</v>
@@ -5411,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -5420,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -5429,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K87" s="2">
         <v>0</v>
@@ -5438,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N87" s="2">
         <v>0</v>
@@ -5447,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q87" s="2">
         <v>0</v>
@@ -5456,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T87" s="2">
         <v>0</v>
@@ -5473,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E88" s="2">
         <v>0</v>
@@ -5482,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
@@ -5491,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K88" s="2">
         <v>0</v>
@@ -5500,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N88" s="2">
         <v>0</v>
@@ -5509,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q88" s="2">
         <v>0</v>
@@ -5518,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T88" s="2">
         <v>0</v>
@@ -5535,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
@@ -5544,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
@@ -5553,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K89" s="2">
         <v>0</v>
@@ -5562,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N89" s="2">
         <v>0</v>
@@ -5571,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q89" s="2">
         <v>0</v>
@@ -5580,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T89" s="2">
         <v>0</v>
@@ -5597,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E90" s="2">
         <v>0</v>
@@ -5606,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -5615,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K90" s="2">
         <v>0</v>
@@ -5624,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N90" s="2">
         <v>0</v>
@@ -5633,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q90" s="2">
         <v>0</v>
@@ -5642,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T90" s="2">
         <v>0</v>
@@ -5650,7 +5728,7 @@
     </row>
     <row r="92" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5726,7 +5804,7 @@
         <v>2</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E94" s="2">
         <v>0</v>
@@ -5735,7 +5813,7 @@
         <v>9</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
@@ -5744,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K94" s="2">
         <v>0</v>
@@ -5753,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N94" s="2">
         <v>1</v>
@@ -5762,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q94" s="2">
         <v>0</v>
@@ -5771,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="T94" s="2">
         <v>0</v>
@@ -5788,7 +5866,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E95" s="2">
         <v>3</v>
@@ -5797,7 +5875,7 @@
         <v>10</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H95" s="2">
         <v>1</v>
@@ -5806,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K95" s="2">
         <v>0</v>
@@ -5815,7 +5893,7 @@
         <v>6</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N95" s="2">
         <v>0</v>
@@ -5824,7 +5902,7 @@
         <v>25</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q95" s="2">
         <v>0</v>
@@ -5833,7 +5911,7 @@
         <v>4</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="T95" s="2">
         <v>0</v>
@@ -5850,7 +5928,7 @@
         <v>11</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E96" s="2">
         <v>1</v>
@@ -5859,7 +5937,7 @@
         <v>11</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -5868,7 +5946,7 @@
         <v>14</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K96" s="2">
         <v>0</v>
@@ -5877,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N96" s="2">
         <v>0</v>
@@ -5886,7 +5964,7 @@
         <v>4</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q96" s="2">
         <v>0</v>
@@ -5895,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T96" s="2">
         <v>0</v>
@@ -5912,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E97" s="2">
         <v>2</v>
@@ -5921,7 +5999,7 @@
         <v>2</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
@@ -5930,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K97" s="2">
         <v>0</v>
@@ -5939,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N97" s="2">
         <v>0</v>
@@ -5948,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q97" s="2">
         <v>0</v>
@@ -5957,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T97" s="2">
         <v>0</v>
@@ -5974,7 +6052,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E98" s="2">
         <v>3</v>
@@ -5983,7 +6061,7 @@
         <v>6</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H98" s="2">
         <v>2</v>
@@ -5992,7 +6070,7 @@
         <v>2</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K98" s="2">
         <v>0</v>
@@ -6001,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N98" s="2">
         <v>1</v>
@@ -6010,7 +6088,7 @@
         <v>3</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q98" s="2">
         <v>1</v>
@@ -6019,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T98" s="2">
         <v>0</v>
@@ -6036,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E99" s="2">
         <v>1</v>
@@ -6045,7 +6123,7 @@
         <v>7</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H99" s="2">
         <v>0</v>
@@ -6054,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K99" s="2">
         <v>0</v>
@@ -6063,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N99" s="2">
         <v>0</v>
@@ -6072,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q99" s="2">
         <v>0</v>
@@ -6081,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T99" s="2">
         <v>0</v>
@@ -6098,7 +6176,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E100" s="2">
         <v>3</v>
@@ -6107,7 +6185,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
@@ -6116,7 +6194,7 @@
         <v>2</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K100" s="2">
         <v>1</v>
@@ -6125,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N100" s="2">
         <v>0</v>
@@ -6134,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q100" s="2">
         <v>0</v>
@@ -6143,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T100" s="2">
         <v>0</v>
@@ -6160,7 +6238,7 @@
         <v>5</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E101" s="2">
         <v>3</v>
@@ -6169,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
@@ -6178,7 +6256,7 @@
         <v>5</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K101" s="2">
         <v>1</v>
@@ -6187,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N101" s="2">
         <v>0</v>
@@ -6196,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q101" s="2">
         <v>2</v>
@@ -6205,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="T101" s="2">
         <v>0</v>
@@ -6222,7 +6300,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E102" s="2">
         <v>4</v>
@@ -6231,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H102" s="2">
         <v>1</v>
@@ -6240,7 +6318,7 @@
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K102" s="2">
         <v>0</v>
@@ -6249,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N102" s="2">
         <v>0</v>
@@ -6258,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q102" s="2">
         <v>0</v>
@@ -6267,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T102" s="2">
         <v>0</v>
@@ -6284,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E103" s="2">
         <v>2</v>
@@ -6293,7 +6371,7 @@
         <v>4</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H103" s="2">
         <v>1</v>
@@ -6302,7 +6380,7 @@
         <v>2</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="K103" s="2">
         <v>0</v>
@@ -6311,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N103" s="2">
         <v>1</v>
@@ -6320,7 +6398,7 @@
         <v>2</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="Q103" s="2">
         <v>2</v>
@@ -6329,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="T103" s="2">
         <v>2</v>
@@ -6337,7 +6415,7 @@
     </row>
     <row r="105" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6413,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
@@ -6422,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -6431,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K107" s="2">
         <v>0</v>
@@ -6440,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N107" s="2">
         <v>0</v>
@@ -6449,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q107" s="2">
         <v>0</v>
@@ -6458,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T107" s="2">
         <v>0</v>
@@ -6475,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E108" s="2">
         <v>0</v>
@@ -6484,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -6493,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K108" s="2">
         <v>0</v>
@@ -6502,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N108" s="2">
         <v>0</v>
@@ -6511,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q108" s="2">
         <v>0</v>
@@ -6520,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T108" s="2">
         <v>0</v>
@@ -6537,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E109" s="2">
         <v>0</v>
@@ -6546,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
@@ -6555,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K109" s="2">
         <v>0</v>
@@ -6564,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N109" s="2">
         <v>0</v>
@@ -6573,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q109" s="2">
         <v>0</v>
@@ -6582,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T109" s="2">
         <v>0</v>
@@ -6599,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E110" s="2">
         <v>0</v>
@@ -6608,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
@@ -6617,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K110" s="2">
         <v>0</v>
@@ -6626,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N110" s="2">
         <v>0</v>
@@ -6635,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q110" s="2">
         <v>0</v>
@@ -6644,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T110" s="2">
         <v>0</v>
@@ -6661,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E111" s="2">
         <v>0</v>
@@ -6670,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
@@ -6679,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K111" s="2">
         <v>0</v>
@@ -6688,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N111" s="2">
         <v>0</v>
@@ -6697,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q111" s="2">
         <v>0</v>
@@ -6706,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T111" s="2">
         <v>0</v>
@@ -6723,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E112" s="2">
         <v>0</v>
@@ -6732,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
@@ -6741,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K112" s="2">
         <v>0</v>
@@ -6750,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N112" s="2">
         <v>0</v>
@@ -6759,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q112" s="2">
         <v>0</v>
@@ -6768,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T112" s="2">
         <v>0</v>
@@ -6785,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E113" s="2">
         <v>0</v>
@@ -6794,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -6803,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K113" s="2">
         <v>0</v>
@@ -6812,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N113" s="2">
         <v>0</v>
@@ -6821,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q113" s="2">
         <v>0</v>
@@ -6830,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T113" s="2">
         <v>0</v>
@@ -6847,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E114" s="2">
         <v>0</v>
@@ -6856,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -6865,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K114" s="2">
         <v>0</v>
@@ -6874,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N114" s="2">
         <v>0</v>
@@ -6883,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q114" s="2">
         <v>0</v>
@@ -6892,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T114" s="2">
         <v>0</v>
@@ -6909,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E115" s="2">
         <v>0</v>
@@ -6918,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -6927,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K115" s="2">
         <v>0</v>
@@ -6936,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N115" s="2">
         <v>0</v>
@@ -6945,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q115" s="2">
         <v>0</v>
@@ -6954,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T115" s="2">
         <v>0</v>
@@ -6971,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E116" s="2">
         <v>0</v>
@@ -6980,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -6989,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K116" s="2">
         <v>0</v>
@@ -6998,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N116" s="2">
         <v>0</v>
@@ -7007,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q116" s="2">
         <v>0</v>
@@ -7016,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T116" s="2">
         <v>0</v>
@@ -7024,7 +7102,7 @@
     </row>
     <row r="118" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7100,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E120" s="2">
         <v>0</v>
@@ -7109,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H120" s="2">
         <v>0</v>
@@ -7118,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K120" s="2">
         <v>0</v>
@@ -7127,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N120" s="2">
         <v>0</v>
@@ -7136,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q120" s="2">
         <v>0</v>
@@ -7145,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T120" s="2">
         <v>0</v>
@@ -7162,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E121" s="2">
         <v>0</v>
@@ -7171,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
@@ -7180,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K121" s="2">
         <v>0</v>
@@ -7189,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N121" s="2">
         <v>0</v>
@@ -7198,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q121" s="2">
         <v>0</v>
@@ -7207,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T121" s="2">
         <v>0</v>
@@ -7224,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E122" s="2">
         <v>0</v>
@@ -7233,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
@@ -7242,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K122" s="2">
         <v>0</v>
@@ -7251,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N122" s="2">
         <v>0</v>
@@ -7260,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q122" s="2">
         <v>0</v>
@@ -7269,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="S122" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T122" s="2">
         <v>0</v>
@@ -7286,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E123" s="2">
         <v>0</v>
@@ -7295,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -7304,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K123" s="2">
         <v>0</v>
@@ -7313,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N123" s="2">
         <v>0</v>
@@ -7322,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q123" s="2">
         <v>0</v>
@@ -7331,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T123" s="2">
         <v>0</v>
@@ -7348,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E124" s="2">
         <v>0</v>
@@ -7357,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
@@ -7366,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K124" s="2">
         <v>0</v>
@@ -7375,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N124" s="2">
         <v>0</v>
@@ -7384,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q124" s="2">
         <v>0</v>
@@ -7393,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="S124" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T124" s="2">
         <v>0</v>
@@ -7410,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E125" s="2">
         <v>0</v>
@@ -7419,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -7428,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K125" s="2">
         <v>0</v>
@@ -7437,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N125" s="2">
         <v>0</v>
@@ -7446,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q125" s="2">
         <v>0</v>
@@ -7455,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T125" s="2">
         <v>0</v>
@@ -7472,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E126" s="2">
         <v>0</v>
@@ -7481,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H126" s="2">
         <v>0</v>
@@ -7490,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K126" s="2">
         <v>0</v>
@@ -7499,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N126" s="2">
         <v>0</v>
@@ -7508,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q126" s="2">
         <v>0</v>
@@ -7517,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T126" s="2">
         <v>0</v>
@@ -7534,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E127" s="2">
         <v>0</v>
@@ -7543,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H127" s="2">
         <v>0</v>
@@ -7552,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K127" s="2">
         <v>0</v>
@@ -7561,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N127" s="2">
         <v>0</v>
@@ -7570,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q127" s="2">
         <v>0</v>
@@ -7579,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="S127" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T127" s="2">
         <v>0</v>
@@ -7596,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E128" s="2">
         <v>0</v>
@@ -7605,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
@@ -7614,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K128" s="2">
         <v>0</v>
@@ -7623,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N128" s="2">
         <v>0</v>
@@ -7632,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q128" s="2">
         <v>0</v>
@@ -7641,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="S128" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T128" s="2">
         <v>0</v>
@@ -7658,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E129" s="2">
         <v>0</v>
@@ -7667,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
@@ -7676,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K129" s="2">
         <v>0</v>
@@ -7685,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N129" s="2">
         <v>0</v>
@@ -7694,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q129" s="2">
         <v>0</v>
@@ -7703,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T129" s="2">
         <v>0</v>
@@ -7711,7 +7789,7 @@
     </row>
     <row r="131" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7787,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E133" s="2">
         <v>0</v>
@@ -7796,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
@@ -7805,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K133" s="2">
         <v>0</v>
@@ -7814,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N133" s="2">
         <v>0</v>
@@ -7823,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="P133" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q133" s="2">
         <v>0</v>
@@ -7832,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="S133" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T133" s="2">
         <v>0</v>
@@ -7849,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E134" s="2">
         <v>0</v>
@@ -7858,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
@@ -7867,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K134" s="2">
         <v>0</v>
@@ -7876,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N134" s="2">
         <v>0</v>
@@ -7885,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q134" s="2">
         <v>0</v>
@@ -7894,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="S134" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T134" s="2">
         <v>0</v>
@@ -7911,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E135" s="2">
         <v>0</v>
@@ -7920,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H135" s="2">
         <v>0</v>
@@ -7929,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K135" s="2">
         <v>0</v>
@@ -7938,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N135" s="2">
         <v>0</v>
@@ -7947,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q135" s="2">
         <v>0</v>
@@ -7956,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="S135" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T135" s="2">
         <v>0</v>
@@ -7973,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E136" s="2">
         <v>0</v>
@@ -7982,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
@@ -7991,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K136" s="2">
         <v>0</v>
@@ -8000,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N136" s="2">
         <v>0</v>
@@ -8009,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q136" s="2">
         <v>0</v>
@@ -8018,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="S136" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T136" s="2">
         <v>0</v>
@@ -8035,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E137" s="2">
         <v>0</v>
@@ -8044,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -8053,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K137" s="2">
         <v>0</v>
@@ -8062,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N137" s="2">
         <v>0</v>
@@ -8071,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q137" s="2">
         <v>0</v>
@@ -8080,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="S137" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T137" s="2">
         <v>0</v>
@@ -8097,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E138" s="2">
         <v>0</v>
@@ -8106,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H138" s="2">
         <v>0</v>
@@ -8115,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K138" s="2">
         <v>0</v>
@@ -8124,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N138" s="2">
         <v>0</v>
@@ -8133,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="P138" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q138" s="2">
         <v>0</v>
@@ -8142,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="S138" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T138" s="2">
         <v>0</v>
@@ -8159,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E139" s="2">
         <v>0</v>
@@ -8168,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H139" s="2">
         <v>0</v>
@@ -8177,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K139" s="2">
         <v>0</v>
@@ -8186,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N139" s="2">
         <v>0</v>
@@ -8195,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="P139" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q139" s="2">
         <v>0</v>
@@ -8204,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="S139" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T139" s="2">
         <v>0</v>
@@ -8221,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E140" s="2">
         <v>0</v>
@@ -8230,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H140" s="2">
         <v>0</v>
@@ -8239,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K140" s="2">
         <v>0</v>
@@ -8248,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N140" s="2">
         <v>0</v>
@@ -8257,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q140" s="2">
         <v>0</v>
@@ -8266,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="S140" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T140" s="2">
         <v>0</v>
@@ -8283,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E141" s="2">
         <v>0</v>
@@ -8292,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H141" s="2">
         <v>0</v>
@@ -8301,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K141" s="2">
         <v>0</v>
@@ -8310,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N141" s="2">
         <v>0</v>
@@ -8319,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q141" s="2">
         <v>0</v>
@@ -8328,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="S141" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T141" s="2">
         <v>0</v>
@@ -8345,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E142" s="2">
         <v>0</v>
@@ -8354,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
@@ -8363,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K142" s="2">
         <v>0</v>
@@ -8372,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N142" s="2">
         <v>0</v>
@@ -8381,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q142" s="2">
         <v>0</v>
@@ -8390,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="S142" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T142" s="2">
         <v>0</v>
@@ -8406,13 +8484,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -8479,7 +8557,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -8546,7 +8624,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -8613,7 +8691,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -8680,7 +8758,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -8747,7 +8825,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -8814,7 +8892,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -8881,7 +8959,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -8948,7 +9026,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -9015,7 +9093,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -9082,7 +9160,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -9149,7 +9227,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -9216,7 +9294,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -9283,7 +9361,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -9350,7 +9428,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -9417,7 +9495,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -9484,7 +9562,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -9551,7 +9629,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -9618,7 +9696,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -9685,7 +9763,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -9765,7 +9843,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -9832,7 +9910,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -9899,7 +9977,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -9966,7 +10044,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -10033,7 +10111,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -10100,7 +10178,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -10167,7 +10245,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -10234,7 +10312,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -10301,7 +10379,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -10368,7 +10446,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -10435,7 +10513,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -10502,7 +10580,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -10569,7 +10647,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -10636,7 +10714,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -10703,7 +10781,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">

--- a/data/volley_stats.xlsx
+++ b/data/volley_stats.xlsx
@@ -10880,8 +10880,10 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -10889,8 +10891,10 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -10898,8 +10902,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -10907,8 +10913,10 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -10916,8 +10924,10 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -10925,8 +10935,10 @@
       <c r="R3" t="n">
         <v>0</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -10998,8 +11010,10 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -11007,8 +11021,10 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -11016,8 +11032,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -11025,8 +11043,10 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -11034,8 +11054,10 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -11043,8 +11065,10 @@
       <c r="R4" t="n">
         <v>0</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -11116,8 +11140,10 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -11125,8 +11151,10 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -11134,8 +11162,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -11143,8 +11173,10 @@
       <c r="L5" t="n">
         <v>0</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -11152,8 +11184,10 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -11161,8 +11195,10 @@
       <c r="R5" t="n">
         <v>0</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -11588,8 +11624,10 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -11597,8 +11635,10 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -11606,8 +11646,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -11615,8 +11657,10 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -11624,8 +11668,10 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -11633,8 +11679,10 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -11706,8 +11754,10 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -11715,8 +11765,10 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -11724,8 +11776,10 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -11733,8 +11787,10 @@
       <c r="L10" t="n">
         <v>0</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -11742,8 +11798,10 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -11751,8 +11809,10 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -11824,8 +11884,10 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -11833,8 +11895,10 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -11842,8 +11906,10 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -11851,8 +11917,10 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -11860,8 +11928,10 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -11869,8 +11939,10 @@
       <c r="R11" t="n">
         <v>0</v>
       </c>
-      <c r="S11" t="n">
-        <v>0</v>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T11" t="n">
         <v>0</v>

--- a/data/volley_stats.xlsx
+++ b/data/volley_stats.xlsx
@@ -12449,8 +12449,10 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -12458,8 +12460,10 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -12467,8 +12471,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -12476,8 +12482,10 @@
       <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -12485,8 +12493,10 @@
       <c r="O17" t="n">
         <v>0</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -12494,8 +12504,10 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
-      <c r="S17" t="n">
-        <v>0</v>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -15080,8 +15092,10 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -15089,8 +15103,10 @@
       <c r="F41" t="n">
         <v>0</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -15098,8 +15114,10 @@
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -15107,8 +15125,10 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -15116,8 +15136,10 @@
       <c r="O41" t="n">
         <v>0</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -15125,8 +15147,10 @@
       <c r="R41" t="n">
         <v>0</v>
       </c>
-      <c r="S41" t="n">
-        <v>0</v>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -16105,8 +16129,10 @@
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" t="n">
-        <v>0</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -16114,8 +16140,10 @@
       <c r="F51" t="n">
         <v>0</v>
       </c>
-      <c r="G51" t="n">
-        <v>0</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -16123,8 +16151,10 @@
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -16132,8 +16162,10 @@
       <c r="L51" t="n">
         <v>0</v>
       </c>
-      <c r="M51" t="n">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -16141,8 +16173,10 @@
       <c r="O51" t="n">
         <v>0</v>
       </c>
-      <c r="P51" t="n">
-        <v>0</v>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -16150,8 +16184,10 @@
       <c r="R51" t="n">
         <v>0</v>
       </c>
-      <c r="S51" t="n">
-        <v>0</v>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -16223,8 +16259,10 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -16232,8 +16270,10 @@
       <c r="F52" t="n">
         <v>0</v>
       </c>
-      <c r="G52" t="n">
-        <v>0</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -16241,8 +16281,10 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -16250,8 +16292,10 @@
       <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="n">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -16259,8 +16303,10 @@
       <c r="O52" t="n">
         <v>0</v>
       </c>
-      <c r="P52" t="n">
-        <v>0</v>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -16268,8 +16314,10 @@
       <c r="R52" t="n">
         <v>0</v>
       </c>
-      <c r="S52" t="n">
-        <v>0</v>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -16341,8 +16389,10 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -16350,8 +16400,10 @@
       <c r="F53" t="n">
         <v>0</v>
       </c>
-      <c r="G53" t="n">
-        <v>0</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -16359,8 +16411,10 @@
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -16368,8 +16422,10 @@
       <c r="L53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="n">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -16377,8 +16433,10 @@
       <c r="O53" t="n">
         <v>0</v>
       </c>
-      <c r="P53" t="n">
-        <v>0</v>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -16386,8 +16444,10 @@
       <c r="R53" t="n">
         <v>0</v>
       </c>
-      <c r="S53" t="n">
-        <v>0</v>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T53" t="n">
         <v>0</v>
@@ -16459,8 +16519,10 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -16468,8 +16530,10 @@
       <c r="F54" t="n">
         <v>0</v>
       </c>
-      <c r="G54" t="n">
-        <v>0</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -16477,8 +16541,10 @@
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -16486,8 +16552,10 @@
       <c r="L54" t="n">
         <v>0</v>
       </c>
-      <c r="M54" t="n">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -16495,8 +16563,10 @@
       <c r="O54" t="n">
         <v>0</v>
       </c>
-      <c r="P54" t="n">
-        <v>0</v>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -16504,8 +16574,10 @@
       <c r="R54" t="n">
         <v>0</v>
       </c>
-      <c r="S54" t="n">
-        <v>0</v>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -16577,8 +16649,10 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -16586,8 +16660,10 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
-      <c r="G55" t="n">
-        <v>0</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -16595,8 +16671,10 @@
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -16604,8 +16682,10 @@
       <c r="L55" t="n">
         <v>0</v>
       </c>
-      <c r="M55" t="n">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -16613,8 +16693,10 @@
       <c r="O55" t="n">
         <v>0</v>
       </c>
-      <c r="P55" t="n">
-        <v>0</v>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
@@ -16622,8 +16704,10 @@
       <c r="R55" t="n">
         <v>0</v>
       </c>
-      <c r="S55" t="n">
-        <v>0</v>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T55" t="n">
         <v>0</v>
@@ -16695,8 +16779,10 @@
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" t="n">
-        <v>0</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -16704,8 +16790,10 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
-      <c r="G56" t="n">
-        <v>0</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -16713,8 +16801,10 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -16722,8 +16812,10 @@
       <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="n">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -16731,8 +16823,10 @@
       <c r="O56" t="n">
         <v>0</v>
       </c>
-      <c r="P56" t="n">
-        <v>0</v>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -16740,8 +16834,10 @@
       <c r="R56" t="n">
         <v>0</v>
       </c>
-      <c r="S56" t="n">
-        <v>0</v>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -16813,8 +16909,10 @@
       <c r="C57" t="n">
         <v>0</v>
       </c>
-      <c r="D57" t="n">
-        <v>0</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -16822,8 +16920,10 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -16831,8 +16931,10 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -16840,8 +16942,10 @@
       <c r="L57" t="n">
         <v>0</v>
       </c>
-      <c r="M57" t="n">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -16849,8 +16953,10 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
-      <c r="P57" t="n">
-        <v>0</v>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -16858,8 +16964,10 @@
       <c r="R57" t="n">
         <v>0</v>
       </c>
-      <c r="S57" t="n">
-        <v>0</v>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T57" t="n">
         <v>0</v>
@@ -16931,8 +17039,10 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -16940,8 +17050,10 @@
       <c r="F58" t="n">
         <v>0</v>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -16949,8 +17061,10 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -16958,8 +17072,10 @@
       <c r="L58" t="n">
         <v>0</v>
       </c>
-      <c r="M58" t="n">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -16967,8 +17083,10 @@
       <c r="O58" t="n">
         <v>0</v>
       </c>
-      <c r="P58" t="n">
-        <v>0</v>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -16976,8 +17094,10 @@
       <c r="R58" t="n">
         <v>0</v>
       </c>
-      <c r="S58" t="n">
-        <v>0</v>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T58" t="n">
         <v>0</v>
@@ -17049,8 +17169,10 @@
       <c r="C59" t="n">
         <v>0</v>
       </c>
-      <c r="D59" t="n">
-        <v>0</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -17058,8 +17180,10 @@
       <c r="F59" t="n">
         <v>0</v>
       </c>
-      <c r="G59" t="n">
-        <v>0</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -17067,8 +17191,10 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -17076,8 +17202,10 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
-      <c r="M59" t="n">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -17085,8 +17213,10 @@
       <c r="O59" t="n">
         <v>0</v>
       </c>
-      <c r="P59" t="n">
-        <v>0</v>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -17094,8 +17224,10 @@
       <c r="R59" t="n">
         <v>0</v>
       </c>
-      <c r="S59" t="n">
-        <v>0</v>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="T59" t="n">
         <v>0</v>
